--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{912807D8-EC4F-46FD-A76A-05507512E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6EFCF2C-2F0B-450B-94BD-833B3ADC901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +944,15 @@
   </si>
   <si>
     <t>C0005</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Avg</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>8171879936</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3690,25 +3692,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3717,16 +3719,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3866,7 +3868,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>94</v>
@@ -4158,11 +4160,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.5916230366492143E-2</v>
+        <v>3.9242219924140946E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4207,7 +4209,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4635,7 +4637,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4643,7 +4645,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4653,11 +4655,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4671,10 +4673,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4723,7 +4725,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4744,7 +4746,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4762,7 +4764,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4869,7 +4871,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4905,8 +4907,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4949,17 +4951,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.64</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4969,40 +4971,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>62433.16271104</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>120780.38327195264</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5025,11 +5027,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5092,7 +5094,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5142,7 +5144,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5182,7 +5184,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5216,7 +5218,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.3753887942894249</v>
+        <v>0.72621024598927719</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5232,12 +5234,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.0204649550238803E-2</v>
+        <v>1.5613229142963897E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5264,7 +5266,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.5916230366492143E-2</v>
+        <v>3.9242219924140946E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5281,12 +5283,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5294,22 +5296,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1914157034068271</v>
+        <v>6.715508195495163</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.456189170629852</v>
+        <v>11.496945766805929</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4604890628315612</v>
-      </c>
-      <c r="G29" s="271">
+        <v>7.9005978770531327</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.831468844025959</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>9.9973441450486344</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5357,7 +5359,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5367,7 +5369,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5394,7 +5396,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6340,12 +6342,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6831,7 +6830,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6882,7 +6881,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6933,7 +6932,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6984,7 +6983,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7086,7 +7085,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7239,7 +7238,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8310,7 +8309,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8379,7 +8378,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8583,7 +8582,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11533,11 +11532,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11548,11 +11547,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11564,11 +11563,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11782,19 +11781,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11804,18 +11803,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11892,7 +11891,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11952,7 +11951,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12015,7 +12014,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12045,7 +12044,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12182,17 +12181,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5815152670864144E-2</v>
+        <v>8.1750858314198569E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5170541291865665E-2</v>
+        <v>1.3011024285803247E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0204649550238803E-2</v>
+        <v>1.5613229142963897E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12233,17 +12232,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5916230366492143E-2</v>
+        <v>3.9242219924140946E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5916230366492143E-2</v>
+        <v>3.9242219924140946E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5916230366492143E-2</v>
+        <v>3.9242219924140946E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12274,15 +12273,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12303,14 +12302,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.299305784467621</v>
+        <v>3.108227772168707</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.0573339252140252</v>
+        <v>3.7780262448357917</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12328,14 +12327,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.669992355295395</v>
+        <v>10.652902880167289</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.669992355295395</v>
+        <v>10.652902880167289</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12361,7 +12360,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12378,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16484.414555089374</v>
+        <v>15349.624154140967</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6403380786723751</v>
+        <v>1.5453385363303145</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0172120349529048</v>
+        <v>1.8783467542787167</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9475062106784531</v>
+        <v>2.7445992925446174</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12441,27 +12440,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94208.314555089368</v>
+        <v>93073.524154140963</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0284897866726066</v>
+        <v>8.9290972368907013</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7151526276853488</v>
+        <v>9.6201530853432882</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.621752690203067</v>
+        <v>10.504820278694943</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.528352752720787</v>
+        <v>11.389487472046598</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.458646928446337</v>
+        <v>12.2557400103125</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12485,7 +12484,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12502,27 +12501,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>51476.513948376894</v>
+        <v>43281.344481036249</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3543416201410468</v>
+        <v>4.5019191540996237</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2992254354600554</v>
+        <v>5.2963754754113221</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2992254354600554</v>
+        <v>5.2963754754113221</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2992254354600554</v>
+        <v>5.2963754754113221</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2042907596055823</v>
+        <v>7.7389482797847693</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12546,7 +12545,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12563,27 +12562,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65433.78739086823</v>
+        <v>60948.040230200779</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1914157034068271</v>
+        <v>6.715508195495163</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0071890315727021</v>
+        <v>7.4582642803773052</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4604890628315612</v>
+        <v>7.9005978770531327</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.9137890940904221</v>
+        <v>8.3429314737289602</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.831468844025959</v>
+        <v>9.9973441450486344</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6EFCF2C-2F0B-450B-94BD-833B3ADC901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA6A7E2-B0FA-46E8-9122-5C388E4DD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>8171879936</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3689,7 +3693,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>263</v>
@@ -3698,16 +3702,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>263</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3868,7 +3872,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>94</v>
@@ -4142,7 +4146,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.57999999999999996</v>
@@ -4160,11 +4164,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9242219924140946E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4209,13 +4213,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4617,7 +4621,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>165790</v>
@@ -4637,7 +4641,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4645,7 +4649,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4655,16 +4659,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4673,10 +4677,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4746,7 +4750,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4821,7 +4825,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4908,7 +4912,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4949,19 +4953,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>7.62</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4969,42 +4973,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>120780.38327195264</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>62269.725112319997</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5027,16 +5031,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5061,40 +5065,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5107,29 +5111,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5139,12 +5143,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5154,7 +5158,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5162,7 +5166,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5176,7 +5180,7 @@
         <v>0.60969766115231028</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5184,7 +5188,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5195,14 +5199,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5214,11 +5218,11 @@
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.72621024598927719</v>
+        <v>0.37440610111065681</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,16 +5234,16 @@
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>1.5613229142963897E-2</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>33.020816788287952</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5262,11 +5266,11 @@
         <v>0.22552196235025673</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9242219924140946E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5283,12 +5287,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5296,42 +5300,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.715508195495163</v>
+        <v>7.194172912277188</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.496945766805929</v>
+        <v>12.461743906302926</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.9005978770531327</v>
-      </c>
-      <c r="G29" s="272">
+        <v>8.4637328379731631</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.9973441450486344</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>10.836299048959066</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5341,7 +5345,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5352,14 +5356,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5369,7 +5373,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5379,14 +5383,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5396,7 +5400,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5411,14 +5415,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6403,16 +6407,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6430,7 +6434,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6463,7 +6467,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6830,7 +6834,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6881,7 +6885,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6932,7 +6936,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6983,7 +6987,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7085,7 +7089,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7238,7 +7242,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8309,7 +8313,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8378,7 +8382,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8582,7 +8586,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10480,7 +10484,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11532,11 +11536,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11547,11 +11551,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11563,11 +11567,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11781,19 +11785,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11803,18 +11807,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11891,7 +11895,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11951,7 +11955,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12014,7 +12018,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12177,28 +12181,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1750858314198569E-3</v>
+        <v>1.5856662257926778E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3011024285803247E-2</v>
+        <v>2.5236605704705206E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5613229142963897E-2</v>
+        <v>3.028392684564625E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12228,21 +12232,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9242219924140946E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9242219924140946E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9242219924140946E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12273,15 +12277,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12298,24 +12302,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.108227772168707</v>
+        <v>3.3003689968066285</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.7780262448357917</v>
+        <v>4.0588952847391946</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12323,18 +12327,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>10.652902880167289</v>
+        <v>12.681728850254693</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.652902880167289</v>
+        <v>12.681728850254693</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12353,14 +12357,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12377,21 +12381,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15349.624154140967</v>
+        <v>16490.758153658495</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.5453385363303145</v>
+        <v>1.6408666831120118</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.8783467542787167</v>
+        <v>2.0179883065842557</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7445992925446174</v>
+        <v>2.9486404818482326</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12440,27 +12444,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>93073.524154140963</v>
+        <v>94214.658153658485</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.9290972368907013</v>
+        <v>9.0290443590027767</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.6201530853432882</v>
+        <v>9.7156812321249859</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.504820278694943</v>
+        <v>10.622405128238562</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.389487472046598</v>
+        <v>11.529129024352136</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.2557400103125</v>
+        <v>12.459781199616115</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12477,14 +12481,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12501,27 +12505,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>43281.344481036249</v>
+        <v>51524.19778507825</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5019191540996237</v>
+        <v>5.3593014655515994</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.2963754754113221</v>
+        <v>6.3050605477077637</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2963754754113221</v>
+        <v>6.3050605477077637</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.2963754754113221</v>
+        <v>6.3050605477077637</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.7389482797847693</v>
+        <v>9.2128168983020178</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12531,21 +12535,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12558,31 +12562,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>60948.040230200779</v>
+        <v>65459.789155226092</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.715508195495163</v>
+        <v>7.194172912277188</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.4582642803773052</v>
+        <v>8.0103708899163752</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.9005978770531327</v>
+        <v>8.4637328379731631</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.3429314737289602</v>
+        <v>8.9170947860299492</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9973441450486344</v>
+        <v>10.836299048959066</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA6A7E2-B0FA-46E8-9122-5C388E4DD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4FA507-129F-4572-A357-AE9D9C90FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4168,7 +4172,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6115485564304461E-2</v>
+        <v>7.3979591836734693E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4965,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.62</v>
+        <v>7.84</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5006,7 +5010,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>62269.725112319997</v>
+        <v>64067.538698240001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5222,7 +5226,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.37440610111065681</v>
+        <v>0.38521572607710619</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5238,7 +5242,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.020816788287952</v>
+        <v>33.974173703435376</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5270,7 +5274,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6115485564304461E-2</v>
+        <v>7.3979591836734693E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5300,20 +5304,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.194172912277188</v>
+        <v>7.1647169808693585</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.461743906302926</v>
+        <v>12.402399801543027</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4637328379731631</v>
+        <v>8.4290788010227757</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.836299048959066</v>
+        <v>10.784695479602632</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12185,17 +12189,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5856662257926778E-2</v>
+        <v>1.541170489864822E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5236605704705206E-2</v>
+        <v>2.4528435646665007E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.028392684564625E-2</v>
+        <v>2.9434122775998016E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12236,17 +12240,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6115485564304461E-2</v>
+        <v>7.3979591836734693E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6115485564304461E-2</v>
+        <v>7.3979591836734693E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6115485564304461E-2</v>
+        <v>7.3979591836734693E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12306,14 +12310,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.3003689968066285</v>
+        <v>3.2889862784032058</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.0588952847391946</v>
+        <v>4.0421834820466298</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12331,14 +12335,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.681728850254693</v>
+        <v>12.55637281821058</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.681728850254693</v>
+        <v>12.55637281821058</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,21 +12385,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16490.758153658495</v>
+        <v>16422.860295452858</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6408666831120118</v>
+        <v>1.6352074603373783</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0179883065842557</v>
+        <v>2.0096795870806168</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9486404818482326</v>
+        <v>2.9364999622025962</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,27 +12448,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94214.658153658485</v>
+        <v>94146.760295452856</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0290443590027767</v>
+        <v>9.023107983534512</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7156812321249859</v>
+        <v>9.710022009350352</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.622405128238562</v>
+        <v>10.615421157099426</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.529129024352136</v>
+        <v>11.520820304848499</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.459781199616115</v>
+        <v>12.44764067997048</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12505,27 +12509,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>51524.19778507825</v>
+        <v>51014.892700191194</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3593014655515994</v>
+        <v>5.3063259782042049</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.3050605477077637</v>
+        <v>6.2427364449461233</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.3050605477077637</v>
+        <v>6.2427364449461233</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.3050605477077637</v>
+        <v>6.2427364449461233</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2128168983020178</v>
+        <v>9.1217502792347833</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12566,27 +12570,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65459.789155226092</v>
+        <v>65182.013368259875</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.194172912277188</v>
+        <v>7.1647169808693585</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0103708899163752</v>
+        <v>7.9763792271482377</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4637328379731631</v>
+        <v>8.4290788010227757</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.9170947860299492</v>
+        <v>8.881778374897312</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.836299048959066</v>
+        <v>10.784695479602632</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4FA507-129F-4572-A357-AE9D9C90FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5774B434-B4F8-442D-BAF5-F9FD8F0BEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3979591836734693E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4879,7 +4879,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.84</v>
+        <v>7.85</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>64067.538698240001</v>
+        <v>64149.257497599996</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38521572607710619</v>
+        <v>0.38570707266649029</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.974173703435376</v>
+        <v>34.017508108669347</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3979591836734693E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5304,20 +5304,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1647169808693585</v>
+        <v>7.1634223583323262</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.402399801543027</v>
+        <v>12.399791481902572</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4290788010227757</v>
+        <v>8.4275557156850915</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.784695479602632</v>
+        <v>10.782427375567455</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12189,17 +12189,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.541170489864822E-2</v>
+        <v>1.5392072153554402E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4528435646665007E-2</v>
+        <v>2.4497189231828493E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9434122775998016E-2</v>
+        <v>2.9396627078194196E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12240,17 +12240,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3979591836734693E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3979591836734693E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3979591836734693E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12310,14 +12310,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.2889862784032058</v>
+        <v>3.2884847659136858</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.0421834820466298</v>
+        <v>4.0414473812786937</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12335,14 +12335,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.55637281821058</v>
+        <v>12.550864687557052</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.55637281821058</v>
+        <v>12.550864687557052</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12385,21 +12385,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16422.860295452858</v>
+        <v>16419.869614765332</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6352074603373783</v>
+        <v>1.6349581199951273</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0096795870806168</v>
+        <v>2.0093136149039639</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9364999622025962</v>
+        <v>2.9359652116434436</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94146.760295452856</v>
+        <v>94143.769614765333</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.023107983534512</v>
+        <v>9.0228464757139779</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.710022009350352</v>
+        <v>9.7097726690081014</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.615421157099426</v>
+        <v>10.615113500839975</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.520820304848499</v>
+        <v>11.520454332671846</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.44764067997048</v>
+        <v>12.447105929411327</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>51014.892700191194</v>
+        <v>50992.513889181311</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3063259782042049</v>
+        <v>5.3039982409506754</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2427364449461233</v>
+        <v>6.2399979305302065</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2427364449461233</v>
+        <v>6.2399979305302065</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2427364449461233</v>
+        <v>6.2399979305302065</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1217502792347833</v>
+        <v>9.1177488217235823</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12570,27 +12570,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65182.013368259875</v>
+        <v>65169.805173084889</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1647169808693585</v>
+        <v>7.1634223583323262</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9763792271482377</v>
+        <v>7.9748852997691539</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4290788010227757</v>
+        <v>8.4275557156850915</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.881778374897312</v>
+        <v>8.8802261316010274</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.784695479602632</v>
+        <v>10.782427375567455</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5774B434-B4F8-442D-BAF5-F9FD8F0BEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D9C78D-3575-4463-97B6-B8238E1181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D9C78D-3575-4463-97B6-B8238E1181D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF8AC70-E3B9-43E5-833A-8072D4C4B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF8AC70-E3B9-43E5-833A-8072D4C4B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE7927C-4C7A-4218-BED1-FC32532A2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4671,7 +4671,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE7927C-4C7A-4218-BED1-FC32532A2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4454525-3FD5-45D4-A72D-EC4A41A81398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5108,7 +5108,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5155,7 +5155,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5304,20 +5304,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1634223583323262</v>
+        <v>7.2431062388937537</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.399791481902572</v>
+        <v>12.611083492274521</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4275557156850915</v>
+        <v>8.521301457522064</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.782427375567455</v>
+        <v>10.966159558499584</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12310,14 +12310,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.2884847659136858</v>
+        <v>3.3649611558186554</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.0414473812786937</v>
+        <v>4.1354345296805235</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12335,14 +12335,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.550864687557052</v>
+        <v>12.842745261686288</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.550864687557052</v>
+        <v>12.842745261686288</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12385,21 +12385,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16419.869614765332</v>
+        <v>16801.727047666853</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6349581199951273</v>
+        <v>1.6729804018554792</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0093136149039639</v>
+        <v>2.0560418385063817</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9359652116434436</v>
+        <v>3.0254697902081555</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12448,27 +12448,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94143.769614765333</v>
+        <v>94525.627047666843</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0228464757139779</v>
+        <v>9.0588654405356532</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7097726690081014</v>
+        <v>9.7477949508684532</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.615113500839975</v>
+        <v>10.657488753571357</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.520454332671846</v>
+        <v>11.567182556274263</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.447105929411327</v>
+        <v>12.536610507976039</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12509,27 +12509,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>50992.513889181311</v>
+        <v>52178.386305208791</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3039982409506754</v>
+        <v>5.4273470372518542</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2399979305302065</v>
+        <v>6.38511416147277</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2399979305302065</v>
+        <v>6.38511416147277</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2399979305302065</v>
+        <v>6.38511416147277</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1177488217235823</v>
+        <v>9.3957086090231261</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12570,27 +12570,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65169.805173084889</v>
+        <v>65918.098142226416</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1634223583323262</v>
+        <v>7.2431062388937537</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9748852997691539</v>
+        <v>8.066454556170612</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4275557156850915</v>
+        <v>8.521301457522064</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8802261316010274</v>
+        <v>8.976148358873516</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.782427375567455</v>
+        <v>10.966159558499584</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4454525-3FD5-45D4-A72D-EC4A41A81398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6135FF7-56FF-4F96-B3B2-6A64DF7A448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>8171879936</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.20500000000000002</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,415 +3806,415 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>8765</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>11881</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>5344</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>6492</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>1084</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>1129</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>94</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>96</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-151</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>31</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>910</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>2541</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>160</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>198</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>69</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>108</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>67641</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>7251</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>16389</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>10902</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>5263</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>163105</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>756</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3885350318471335E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>7.2864321608040197E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4219,10 +4223,10 @@
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4339,7 +4343,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4353,7 +4357,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4377,7 +4381,7 @@
       <c r="C59" s="120">
         <v>0</v>
       </c>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4457,7 +4461,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4471,7 +4475,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4486,7 +4490,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4542,16 +4546,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>0</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4647,7 +4651,7 @@
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4655,19 +4659,20 @@
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4681,14 +4686,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4700,12 +4705,12 @@
         <f>C25</f>
         <v>8765</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>8765</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91*1.2</f>
         <v>10518</v>
       </c>
@@ -4718,15 +4723,15 @@
         <f>C26</f>
         <v>5344</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>5344</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>6412.7999999999993</v>
       </c>
@@ -4739,15 +4744,15 @@
         <f>C27+C28</f>
         <v>1084</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>1084</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>1300.8</v>
       </c>
@@ -4760,12 +4765,12 @@
         <f>C29</f>
         <v>94</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>112.80000000000001</v>
       </c>
@@ -4778,15 +4783,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>91</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>91</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>109.2</v>
       </c>
@@ -4799,12 +4804,12 @@
         <f>MAX(C31,0)</f>
         <v>910</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*2%</f>
         <v>210.36</v>
       </c>
@@ -4817,12 +4822,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4831,16 +4836,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.57999999999999996</v>
       </c>
@@ -4959,17 +4964,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.85</v>
+        <v>7.96</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4979,40 +4984,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64149.257497599996</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>65048.164290559995</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5020,11 +5025,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5035,22 +5040,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
@@ -5079,7 +5084,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5090,7 +5095,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5104,11 +5109,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5117,7 +5122,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5128,7 +5133,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5139,10 +5144,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5154,10 +5159,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5179,14 +5184,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.60969766115231028</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5194,7 +5199,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.12367370222475756</v>
       </c>
@@ -5205,7 +5210,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5217,46 +5222,46 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38570707266649029</v>
+        <v>0.39111188514971501</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.017508108669347</v>
+        <v>34.494186566243059</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.038220193953223E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>2.5133955035704743</v>
       </c>
@@ -5265,16 +5270,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.22552196235025673</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3885350318471335E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5293,10 +5298,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5304,22 +5309,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.2431062388937537</v>
+        <v>7.1494235006857725</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.611083492274521</v>
+        <v>12.371587094921917</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.521301457522064</v>
-      </c>
-      <c r="G29" s="273">
+        <v>8.4110864713950271</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.966159558499584</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>10.757901821671233</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5331,17 +5336,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5351,7 +5356,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5359,17 +5364,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5379,24 +5384,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5406,7 +5411,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5425,10 +5430,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6410,16 +6415,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6433,11 +6438,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6470,7 +6475,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6534,47 +6539,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>8765</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11881</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6636,47 +6641,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>5344</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6492</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6687,47 +6692,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3421</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>5389</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6738,47 +6743,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1084</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1129</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6789,47 +6794,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6840,47 +6845,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38.9937106918239</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6888,50 +6893,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.35527365451630133</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6939,50 +6944,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2337</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4221.0062893081758</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6990,50 +6995,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.44634055487677682</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7044,47 +7049,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>910</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>2541</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7095,47 +7100,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>94</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>96</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7146,47 +7151,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.825442099258414E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>1.6665263866677889E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7197,47 +7202,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>160</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>198</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7248,47 +7253,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>7.8722190530519116E-3</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>9.0901439272788494E-3</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7299,47 +7304,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>69</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>108</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7350,47 +7355,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1242</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1494.0062893081758</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7401,47 +7406,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>9.9969278680245743E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7452,7 +7457,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>987.38999999999987</v>
       </c>
@@ -7500,50 +7505,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.16867819841968104</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7660,43 +7665,43 @@
         <f>Fin_Analysis!C28</f>
         <v>70435</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>67641</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7711,43 +7716,43 @@
         <f>Fin_Analysis!C13</f>
         <v>8192</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>7251</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7762,43 +7767,43 @@
         <f>Fin_Analysis!C18</f>
         <v>6401</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>16389</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7813,43 +7818,43 @@
         <f>Fin_Analysis!I28</f>
         <v>7818</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>10902</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7864,43 +7869,43 @@
         <f>Fin_Analysis!I48</f>
         <v>6210</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>5263</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7915,43 +7920,43 @@
         <f>Fin_Analysis!I15</f>
         <v>20</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7966,43 +7971,43 @@
         <f>Fin_Analysis!I34</f>
         <v>847</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8068,43 +8073,43 @@
         <f>Fin_Analysis!D3</f>
         <v>166316</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>163105</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8119,43 +8124,43 @@
         <f>Fin_Analysis!D4</f>
         <v>526</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>756</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8170,43 +8175,43 @@
         <f>Fin_Analysis!C63</f>
         <v>141182</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8268,47 +8273,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>5.9675195342423777E-2</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8337,47 +8342,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.54641865162865078</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8388,47 +8393,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>9.5025671239794635E-2</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8439,47 +8444,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0.21387088628903292</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8490,47 +8495,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>8.0801279353589772E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8541,47 +8546,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>3.2820226152532532E-3</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8592,47 +8597,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>7.5751199393990403E-3</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8643,47 +8648,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.12574752035251038</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8712,47 +8717,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.93462635482030809</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.61030216311758267</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8763,47 +8768,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.73029092983456934</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>1.3794293409645653</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8831,47 +8836,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>7.7784678170607288E-2</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>9.0171250069727232E-2</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8881,47 +8886,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>1.4325259515570934</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8931,47 +8936,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>7.5684380032206122E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>6.4256757610072962E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8981,47 +8986,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>9.0093374264517774</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>6.2044578976334614</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10319,8 +10324,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10369,7 +10374,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>165790</v>
       </c>
@@ -10466,7 +10471,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10513,7 +10518,7 @@
         <f>Inputs!C48</f>
         <v>45574</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10541,7 +10546,7 @@
         <f>Inputs!C49</f>
         <v>843</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10569,7 +10574,7 @@
         <f>Inputs!C50</f>
         <v>8192</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10597,7 +10602,7 @@
         <f>Inputs!C51</f>
         <v>13</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10610,7 +10615,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10625,7 +10630,7 @@
         <f>Inputs!C52</f>
         <v>6</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10652,7 +10657,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10674,7 +10679,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10696,7 +10701,7 @@
         <f>Inputs!C55</f>
         <v>6401</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10717,7 +10722,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10742,7 +10747,7 @@
         <f>Inputs!C57</f>
         <v>9403</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10769,7 +10774,7 @@
         <f>Inputs!C58</f>
         <v>3</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10790,7 +10795,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10955,7 +10960,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>7818</v>
       </c>
@@ -10984,7 +10989,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11010,7 +11015,7 @@
         <f>Inputs!C61</f>
         <v>1241</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11037,7 +11042,7 @@
         <f>Inputs!C62</f>
         <v>69365</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11064,7 +11069,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11080,7 +11085,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f>Inputs!C64</f>
         <v>13047</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11121,7 +11126,7 @@
         <f>Inputs!C65</f>
         <v>23342</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11147,7 +11152,7 @@
         <f>Inputs!C66</f>
         <v>1641</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11174,7 +11179,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11201,7 +11206,7 @@
         <f>Inputs!C68</f>
         <v>1263</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11222,7 +11227,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11243,7 +11248,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11264,7 +11269,7 @@
         <f>Inputs!C71</f>
         <v>10</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11285,7 +11290,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11431,7 +11436,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>6210</v>
       </c>
@@ -11540,11 +11545,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11555,11 +11560,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11571,11 +11576,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11671,8 +11676,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>867</v>
@@ -11752,8 +11757,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>13161</v>
@@ -11789,19 +11794,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11811,18 +11816,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11833,17 +11838,17 @@
         <f>Data!C6</f>
         <v>8765</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>8765</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>10518</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11854,23 +11859,23 @@
         <f>Data!C8</f>
         <v>5344</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>5344</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>6412.7999999999993</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.60969766115231028</v>
       </c>
@@ -11880,21 +11885,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>3421</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>3421</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>4105.2000000000007</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11905,23 +11910,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1084</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>1084</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>1300.8</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.12367370222475756</v>
       </c>
@@ -11935,54 +11940,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>2337</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>2337</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>2804.4000000000005</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.26662863662293218</v>
       </c>
@@ -11996,27 +12001,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>910</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>175.3</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0.02</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>210.36</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0.02</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12028,23 +12033,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>94</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>94</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>112.80000000000001</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
@@ -12058,23 +12063,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>91</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>91</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>109.2</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>1.038220193953223E-2</v>
       </c>
@@ -12084,27 +12089,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1242</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>1976.7</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.22552196235025671</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>2372.0400000000004</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.22552196235025673</v>
       </c>
@@ -12114,49 +12119,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.20500000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>987.38999999999987</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>1571.4765</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.17928996006845407</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>1885.7718000000002</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.1792899600684541</v>
       </c>
@@ -12166,69 +12171,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.12082776640540205</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.19230293546985366</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.23076352256382443</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5392072153554402E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>1.5179367638869604E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4497189231828493E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>2.4158660234906239E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9396627078194196E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>2.8990392281887493E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>4.8002211516016979</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>3.0160746042845692</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>2.5133955035704743</v>
       </c>
@@ -12238,21 +12243,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3885350318471335E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>7.2864321608040197E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3885350318471335E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>7.2864321608040197E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3885350318471335E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.2864321608040197E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12274,22 +12279,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12299,9 +12304,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12309,15 +12314,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.3649611558186554</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>3.283055214746029</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.1354345296805235</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>4.0334792122537877</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12325,24 +12330,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.842745261686288</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.491312481902307</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.842745261686288</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.491312481902307</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,14 +12371,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12385,21 +12393,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16801.727047666853</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>16387.49599113152</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6729804018554792</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>1.6322586734714568</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0560418385063817</v>
+        <v>2.0053520266418561</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.0254697902081555</v>
+        <v>2.930176625315192</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12411,14 +12419,14 @@
         <f>E53*Exchange_Rate</f>
         <v>526</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>6.4367073931517929E-2</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12429,17 +12437,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>78249.899999999994</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>8.1391816229444913</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>9.5755077916994011</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12448,27 +12456,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94525.627047666843</v>
+        <v>94111.395991131518</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0588654405356532</v>
+        <v>9.0200155359300229</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7477949508684532</v>
+        <v>9.7070732224844303</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.657488753571357</v>
+        <v>10.611782983447085</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.567182556274263</v>
+        <v>11.516492744409739</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.536610507976039</v>
+        <v>12.441317343083075</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,14 +12495,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12509,27 +12517,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52178.386305208791</v>
+        <v>50750.561103490654</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.4273470372518542</v>
+        <v>5.2788314654415229</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.38511416147277</v>
+        <v>6.2103899593429679</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.38511416147277</v>
+        <v>6.2103899593429679</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.38511416147277</v>
+        <v>6.2103899593429679</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3957086090231261</v>
+        <v>9.074486300259391</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,14 +12556,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12570,27 +12578,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65918.098142226416</v>
+        <v>65037.799003797016</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.2431062388937537</v>
+        <v>7.1494235006857725</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.066454556170612</v>
+        <v>7.9587315909136986</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.521301457522064</v>
+        <v>8.4110864713950271</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.976148358873516</v>
+        <v>8.8634413518763537</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.966159558499584</v>
+        <v>10.757901821671233</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6135FF7-56FF-4F96-B3B2-6A64DF7A448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F11C83-E4A6-48D6-BC4E-72F1C76CFC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0005</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4660,9 +4663,11 @@
         <v>249</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4974,10 +4979,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.96</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5015,7 +5020,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65048.164290559995</v>
+        <v>64884.726691840006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5053,7 +5058,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5110,10 +5115,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5160,7 +5165,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5231,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39111188514971501</v>
+        <v>0.39012919197094686</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.494186566243059</v>
+        <v>34.407517755775118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5279,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5309,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1494235006857725</v>
+        <v>7.1519362145865024</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.371587094921917</v>
+        <v>11.763578080309953</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4110864713950271</v>
+        <v>8.4140426053958866</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.757901821671233</v>
+        <v>10.229198330704309</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12194,17 +12199,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5179367638869604E-2</v>
+        <v>1.5217602821839048E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4158660234906239E-2</v>
+        <v>2.4219513283356885E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8990392281887493E-2</v>
+        <v>2.9063415940028266E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12245,17 +12250,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12304,7 +12309,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12315,14 +12320,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.283055214746029</v>
+        <v>3.2840306869486269</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0334792122537877</v>
+        <v>4.0349106212204973</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12336,21 +12341,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.491312481902307</v>
+        <v>12.502000724057343</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.491312481902307</v>
+        <v>12.502000724057343</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12393,21 +12398,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16387.49599113152</v>
+        <v>16393.311617658703</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6322586734714568</v>
+        <v>1.6327436555565185</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0053520266418561</v>
+        <v>2.0060636898788013</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.930176625315192</v>
+        <v>2.6710670667547856</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12456,27 +12461,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94111.395991131518</v>
+        <v>94117.211617658701</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0200155359300229</v>
+        <v>9.0205241101918734</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7070732224844303</v>
+        <v>9.7075582045694926</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.611782983447085</v>
+        <v>10.612381306108087</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.516492744409739</v>
+        <v>11.517204407646684</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.441317343083075</v>
+        <v>12.182207784522669</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12517,27 +12522,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>50750.561103490654</v>
+        <v>50793.986026801467</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2788314654415229</v>
+        <v>5.2833483189811323</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2103899593429679</v>
+        <v>6.2157039046836857</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2103899593429679</v>
+        <v>6.2157039046836857</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2103899593429679</v>
+        <v>6.2157039046836857</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.074486300259391</v>
+        <v>8.2761888768859482</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12578,27 +12583,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65037.799003797016</v>
+        <v>65061.493073137543</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1494235006857725</v>
+        <v>7.1519362145865024</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9587315909136986</v>
+        <v>7.9616310546265892</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4110864713950271</v>
+        <v>8.4140426053958866</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8634413518763537</v>
+        <v>8.8664541561651848</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.757901821671233</v>
+        <v>10.229198330704309</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F11C83-E4A6-48D6-BC4E-72F1C76CFC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34F4404-A4CD-4011-B4C6-DAEE97F4731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.94</v>
+        <v>7.87</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64884.726691840006</v>
+        <v>64312.69509632</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39012919197094686</v>
+        <v>0.38668976584525844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.407517755775118</v>
+        <v>34.104176919137295</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1519362145865024</v>
+        <v>7.1608442539203541</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.763578080309953</v>
+        <v>11.779932800434452</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4140426053958866</v>
+        <v>8.4245226516710048</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.229198330704309</v>
+        <v>10.243419826464741</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12199,17 +12199,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5217602821839048E-2</v>
+        <v>1.5352956341220083E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4219513283356885E-2</v>
+        <v>2.4434934621328293E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9063415940028266E-2</v>
+        <v>2.9321921545593956E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12250,17 +12250,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12320,14 +12320,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2840306869486269</v>
+        <v>3.2874857467779686</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0349106212204973</v>
+        <v>4.0399811113658934</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12348,14 +12348,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.502000724057343</v>
+        <v>12.539896181871558</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.502000724057343</v>
+        <v>12.539896181871558</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12398,21 +12398,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16393.311617658703</v>
+        <v>16413.912352795334</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.6327436555565185</v>
+        <v>1.634461430922731</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0060636898788013</v>
+        <v>2.0085846196156516</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.6710670667547856</v>
+        <v>2.6744236762341735</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12461,27 +12461,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94117.211617658701</v>
+        <v>94137.812352795328</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0205241101918734</v>
+        <v>9.0223255598606755</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7075582045694926</v>
+        <v>9.709275979935704</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.612381306108087</v>
+        <v>10.614500658659619</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.517204407646684</v>
+        <v>11.519725337383534</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.182207784522669</v>
+        <v>12.185564394002057</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12522,27 +12522,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>50793.986026801467</v>
+        <v>50947.950291976289</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2833483189811323</v>
+        <v>5.2993629479800326</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2157039046836857</v>
+        <v>6.2345446446823916</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2157039046836857</v>
+        <v>6.2345446446823916</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2157039046836857</v>
+        <v>6.2345446446823916</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2761888768859482</v>
+        <v>8.3012752589274257</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12583,27 +12583,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65061.493073137543</v>
+        <v>65145.493932749792</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1519362145865024</v>
+        <v>7.1608442539203541</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9616310546265892</v>
+        <v>7.9719103123090473</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4140426053958866</v>
+        <v>8.4245226516710048</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8664541561651848</v>
+        <v>8.8771349910329622</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.229198330704309</v>
+        <v>10.243419826464741</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34F4404-A4CD-4011-B4C6-DAEE97F4731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF7FADD-DA1E-49B4-B32A-CC167275B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4179,7 +4187,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4312,7 +4320,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4444,7 +4452,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -4663,7 +4671,7 @@
         <v>249</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4979,10 +4987,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5020,7 +5028,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64312.69509632</v>
+        <v>65048.164290559995</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5115,10 +5123,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5165,7 +5173,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5236,7 +5244,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38668976584525844</v>
+        <v>0.39111188514971501</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5260,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.104176919137295</v>
+        <v>34.494186566243059</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5292,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5314,20 +5322,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.1608442539203541</v>
+        <v>7.8133761897322778</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.779932800434452</v>
+        <v>13.36601678485354</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.4245226516710048</v>
+        <v>9.192207282037975</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.243419826464741</v>
+        <v>11.622623291176993</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12199,17 +12207,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5352956341220083E-2</v>
+        <v>1.5179367638869604E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4434934621328293E-2</v>
+        <v>2.4158660234906239E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9321921545593956E-2</v>
+        <v>2.8990392281887493E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12250,17 +12258,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12309,7 +12317,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12320,14 +12328,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2874857467779686</v>
+        <v>3.9218397135427678</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0399811113658934</v>
+        <v>4.8182738101131211</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12348,14 +12356,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.539896181871558</v>
+        <v>14.921748847159316</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.539896181871558</v>
+        <v>14.921748847159316</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12398,21 +12406,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16413.912352795334</v>
+        <v>19576.013310672948</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.634461430922731</v>
+        <v>1.9498474651423736</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.0085846196156516</v>
+        <v>2.3955336426852938</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.6744236762341735</v>
+        <v>3.3523103666893093</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12461,27 +12469,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>94137.812352795328</v>
+        <v>97299.913310672942</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.0223255598606755</v>
+        <v>9.32081795920862</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.709275979935704</v>
+        <v>10.024662014155346</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.614500658659619</v>
+        <v>10.96566818730426</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.519725337383534</v>
+        <v>11.906674360453176</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.185564394002057</v>
+        <v>12.863451084457193</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12522,27 +12530,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>50947.950291976289</v>
+        <v>60625.104666613268</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2993629479800326</v>
+        <v>6.3059344202559364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2345446446823916</v>
+        <v>7.4187463767716899</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2345446446823916</v>
+        <v>7.4187463767716899</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2345446446823916</v>
+        <v>7.4187463767716899</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.3012752589274257</v>
+        <v>10.381795497896793</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12583,27 +12591,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>65145.493932749792</v>
+        <v>71272.719522635351</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.1608442539203541</v>
+        <v>7.8133761897322778</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.9719103123090473</v>
+        <v>8.7217041954635182</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.4245226516710048</v>
+        <v>9.192207282037975</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.8771349910329622</v>
+        <v>9.6627103686124336</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.243419826464741</v>
+        <v>11.622623291176993</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF7FADD-DA1E-49B4-B32A-CC167275B8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09279294-C038-498E-BA6E-8C90E14564DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4187,7 +4191,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.2772898368883315E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4671,7 +4675,7 @@
         <v>249</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4987,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5028,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65048.164290559995</v>
+        <v>65129.883089919997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5098,7 +5102,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5109,7 +5113,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5136,7 +5140,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5244,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39111188514971501</v>
+        <v>0.39160323173909906</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.494186566243059</v>
+        <v>34.537520971477036</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5292,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.2772898368883315E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5322,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.8133761897322778</v>
+        <v>7.8118817511398593</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.36601678485354</v>
+        <v>13.363133103130977</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.192207282037975</v>
+        <v>9.1904491189880702</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.622623291176993</v>
+        <v>11.620115741853024</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5370,8 +5374,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6397,12 +6401,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8828,118 +8832,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.2920410783055199</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>7.7784678170607288E-2</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>9.0171250069727232E-2</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4325259515570934</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8947,107 +8952,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>7.5684380032206122E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.4325259515570934</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.4256757610072962E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>7.5684380032206122E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.4256757610072962E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>9.0093374264517774</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>6.2044578976334614</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9615,7 +9667,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10298,6 +10352,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12207,17 +12262,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5179367638869604E-2</v>
+        <v>1.516032200820603E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4158660234906239E-2</v>
+        <v>2.4128348239630323E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8990392281887493E-2</v>
+        <v>2.8954017887556392E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12258,17 +12313,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.2772898368883315E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.2772898368883315E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2864321608040197E-2</v>
+        <v>7.2772898368883315E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12328,14 +12383,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9218397135427678</v>
+        <v>3.9212593749937281</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8182738101131211</v>
+        <v>4.8174222501644097</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12356,14 +12411,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.921748847159316</v>
+        <v>14.91539220863374</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.921748847159316</v>
+        <v>14.91539220863374</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12406,21 +12461,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19576.013310672948</v>
+        <v>19572.553534506671</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9498474651423736</v>
+        <v>1.9495589343171944</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.3955336426852938</v>
+        <v>2.3951102668900828</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3523103666893093</v>
+        <v>3.3517178944977268</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12469,27 +12524,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>97299.913310672942</v>
+        <v>97296.453534506669</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.32081795920862</v>
+        <v>9.3205153988949565</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>10.024662014155346</v>
+        <v>10.024373483330168</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.96566818730426</v>
+        <v>10.965312233994066</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.906674360453176</v>
+        <v>11.906250984657966</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.863451084457193</v>
+        <v>12.86285861226561</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12530,27 +12585,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60625.104666613268</v>
+        <v>60599.278479623514</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.3059344202559364</v>
+        <v>6.303248103384762</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.4187463767716899</v>
+        <v>7.4155860039820727</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.4187463767716899</v>
+        <v>7.4155860039820727</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4187463767716899</v>
+        <v>7.4155860039820727</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.381795497896793</v>
+        <v>10.377372871440436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12591,27 +12646,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71272.719522635351</v>
+        <v>71258.627509509868</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.8133761897322778</v>
+        <v>7.8118817511398593</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.7217041954635182</v>
+        <v>8.7199797436561202</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.192207282037975</v>
+        <v>9.1904491189880702</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.6627103686124336</v>
+        <v>9.6609184943200184</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.622623291176993</v>
+        <v>11.620115741853024</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09279294-C038-498E-BA6E-8C90E14564DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1129605D-F6C5-4EA0-AD8E-3F8A3936ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2772898368883315E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65129.883089919997</v>
+        <v>65375.039488000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39160323173909906</v>
+        <v>0.39307727150725125</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.537520971477036</v>
+        <v>34.667524187178955</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2772898368883315E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.8118817511398593</v>
+        <v>7.8074236930327636</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.363133103130977</v>
+        <v>13.354530753748822</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.1904491189880702</v>
+        <v>9.1852043447444292</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.620115741853024</v>
+        <v>11.612635438042455</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10392,8 +10392,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12262,17 +12262,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.516032200820603E-2</v>
+        <v>1.5103470800675256E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4128348239630323E-2</v>
+        <v>2.4037866933731708E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8954017887556392E-2</v>
+        <v>2.8845440320478054E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12313,17 +12313,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2772898368883315E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2772898368883315E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2772898368883315E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12383,14 +12383,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9212593749937281</v>
+        <v>3.9195274730197851</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8174222501644097</v>
+        <v>4.8148810597892</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12411,14 +12411,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.91539220863374</v>
+        <v>14.896430526064796</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.91539220863374</v>
+        <v>14.896430526064796</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12461,21 +12461,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19572.553534506671</v>
+        <v>19562.229011955536</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9495589343171944</v>
+        <v>1.9486978729479327</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.3951102668900828</v>
+        <v>2.3938468461555646</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3517178944977268</v>
+        <v>3.3499498632121933</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12484,15 +12484,15 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>526</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-526</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>6.4367073931517929E-2</v>
+        <v>-6.4367073931517929E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12523,28 +12523,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>97296.453534506669</v>
+        <f>C97+C98+$C$99</f>
+        <v>97286.129011955534</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.3205153988949565</v>
+        <v>9.3196124940008485</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>10.024373483330168</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>10.023512421960906</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.965312233994066</v>
+        <v>10.964249992942175</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.906250984657966</v>
+        <v>11.904987563923447</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>12.86285861226561</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>12.861090580980076</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60599.278479623514</v>
+        <v>60522.239655141748</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.303248103384762</v>
+        <v>6.2952348920646797</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.4155860039820727</v>
+        <v>7.4061586965466821</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.4155860039820727</v>
+        <v>7.4061586965466821</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4155860039820727</v>
+        <v>7.4061586965466821</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.377372871440436</v>
+        <v>10.364180295104834</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12646,27 +12646,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71258.627509509868</v>
+        <v>71216.589852205419</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.8118817511398593</v>
+        <v>7.8074236930327636</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.7199797436561202</v>
+        <v>8.7148355592537943</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.1904491189880702</v>
+        <v>9.1852043447444292</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.6609184943200184</v>
+        <v>9.655573130235064</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.620115741853024</v>
+        <v>11.612635438042455</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1129605D-F6C5-4EA0-AD8E-3F8A3936ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CEBA99-F453-4C92-9E20-D56A3A84356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2955974842767293E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8</v>
+        <v>7.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65375.039488000002</v>
+        <v>64966.445491200007</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39307727150725125</v>
+        <v>0.39062053856033091</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.667524187178955</v>
+        <v>34.450852161009088</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2955974842767293E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.8074236930327636</v>
+        <v>7.8148748676073909</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.354530753748822</v>
+        <v>13.368908639701234</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.1852043447444292</v>
+        <v>9.1939704324792828</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.612635438042455</v>
+        <v>11.625137947566291</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12262,17 +12262,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5103470800675256E-2</v>
+        <v>1.519846118306944E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4037866933731708E-2</v>
+        <v>2.4189048486774046E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8845440320478054E-2</v>
+        <v>2.9026858184128857E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12313,17 +12313,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2955974842767293E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2955974842767293E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2955974842767293E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12383,14 +12383,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9195274730197851</v>
+        <v>3.9224215810316259</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8148810597892</v>
+        <v>4.8191276332235224</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12411,14 +12411,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.896430526064796</v>
+        <v>14.928123652485224</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.896430526064796</v>
+        <v>14.928123652485224</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12461,21 +12461,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19562.229011955536</v>
+        <v>19579.482281767756</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9486978729479327</v>
+        <v>1.9501367561208605</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.3938468461555646</v>
+        <v>2.3959581436718453</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3499498632121933</v>
+        <v>3.3529044134739299</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>97286.129011955534</v>
+        <v>97303.382281767757</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.3196124940008485</v>
+        <v>9.3211213207937629</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.023512421960906</v>
+        <v>10.024951305133834</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.964249992942175</v>
+        <v>10.96602508328678</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.904987563923447</v>
+        <v>11.907098861439728</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.861090580980076</v>
+        <v>12.864045131241813</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60522.239655141748</v>
+        <v>60651.004662925428</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2952348920646797</v>
+        <v>6.308628414421019</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.4061586965466821</v>
+        <v>7.4219157816717871</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.4061586965466821</v>
+        <v>7.4219157816717871</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4061586965466821</v>
+        <v>7.4219157816717871</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.364180295104834</v>
+        <v>10.38623076389077</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12646,27 +12646,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71216.589852205419</v>
+        <v>71286.851546362814</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.8074236930327636</v>
+        <v>7.8148748676073909</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.7148355592537943</v>
+        <v>8.7234335434028107</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.1852043447444292</v>
+        <v>9.1939704324792828</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.655573130235064</v>
+        <v>9.6645073215557566</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.612635438042455</v>
+        <v>11.625137947566291</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CEBA99-F453-4C92-9E20-D56A3A84356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CD008B-E84F-42C5-8B1F-53EA86270AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2955974842767293E-2</v>
+        <v>7.2681704260651625E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.95</v>
+        <v>7.98</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64966.445491200007</v>
+        <v>65211.601889280006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5127,10 +5127,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5177,7 +5177,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39062053856033091</v>
+        <v>0.39209457832848316</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.450852161009088</v>
+        <v>34.580855376711007</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2955974842767293E-2</v>
+        <v>7.2681704260651625E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.8148748676073909</v>
+        <v>7.4492468541616628</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.368908639701234</v>
+        <v>12.483525607351172</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.1939704324792828</v>
+        <v>8.7638198284254862</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.625137947566291</v>
+        <v>10.855239658566237</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12262,17 +12262,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.519846118306944E-2</v>
+        <v>1.5141324110952637E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4189048486774046E-2</v>
+        <v>2.4098112214267376E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9026858184128857E-2</v>
+        <v>2.8917734657120855E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12313,17 +12313,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2955974842767293E-2</v>
+        <v>7.2681704260651625E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2955974842767293E-2</v>
+        <v>7.2681704260651625E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2955974842767293E-2</v>
+        <v>7.2681704260651625E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12383,14 +12383,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9224215810316259</v>
+        <v>3.5730738293660291</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8191276332235224</v>
+        <v>4.3895365802608168</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12411,14 +12411,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.928123652485224</v>
+        <v>13.587220036457229</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.928123652485224</v>
+        <v>13.587220036457229</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12461,21 +12461,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19579.482281767756</v>
+        <v>17834.110287072737</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9501367561208605</v>
+        <v>1.7764491814639614</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.3959581436718453</v>
+        <v>2.1823754664464929</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3529044134739299</v>
+        <v>2.9788155994223482</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>97303.382281767757</v>
+        <v>95558.010287072728</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.3211213207937629</v>
+        <v>9.1565314637438071</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.024951305133834</v>
+        <v>9.8512637304769353</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.96602508328678</v>
+        <v>10.772389957345656</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.907098861439728</v>
+        <v>11.693516184214374</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.864045131241813</v>
+        <v>12.489956317190231</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60651.004662925428</v>
+        <v>55203.089482057519</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.308628414421019</v>
+        <v>5.7419622445795184</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.4219157816717871</v>
+        <v>6.755249699505316</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.4219157816717871</v>
+        <v>6.755249699505316</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4219157816717871</v>
+        <v>6.755249699505316</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.38623076389077</v>
+        <v>9.2205229999422436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12646,27 +12646,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71286.851546362814</v>
+        <v>67853.216952693241</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.8148748676073909</v>
+        <v>7.4492468541616628</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.7234335434028107</v>
+        <v>8.3032567149911252</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>9.1939704324792828</v>
+        <v>8.7638198284254862</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.6645073215557566</v>
+        <v>9.2243829418598455</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.625137947566291</v>
+        <v>10.855239658566237</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CD008B-E84F-42C5-8B1F-53EA86270AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E661D-006A-4FE1-A66B-D3EC4D4A04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4359,7 +4359,7 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4488,10 +4488,10 @@
         <v>1641</v>
       </c>
       <c r="D66" s="60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4502,8 +4502,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="60">
-        <f>D65</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E67" s="221" t="s">
         <v>46</v>
@@ -4937,8 +4936,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5325,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4492468541616628</v>
+        <v>7.4334581218246143</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.483525607351172</v>
+        <v>12.460432389942453</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7638198284254862</v>
+        <v>8.7452448492054291</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.855239658566237</v>
+        <v>10.83515859994996</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -8190,7 +8189,7 @@
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
-        <v>141182</v>
+        <v>139541</v>
       </c>
       <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
@@ -8241,7 +8240,7 @@
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>39162</v>
+        <v>40803</v>
       </c>
       <c r="D39" s="65" t="str">
         <f>IF(D38="","",D27-D38)</f>
@@ -8292,7 +8291,7 @@
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>5.9675195342423777E-2</v>
+        <v>5.727520035291523E-2</v>
       </c>
       <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
@@ -10392,7 +10391,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
@@ -10486,11 +10485,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>84351.6</v>
+        <v>84515.700000000012</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.4928233002236706</v>
+        <v>0.49183662425743757</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10511,7 +10510,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>10.322178086391308</v>
+        <v>10.342259145007587</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10800,11 +10799,11 @@
       </c>
       <c r="F19" s="134" t="str">
         <f>Inputs!E56</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
@@ -11222,19 +11221,19 @@
       </c>
       <c r="D36" s="198">
         <f>Inputs!D66</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
-        <v>328.20000000000005</v>
+        <v>492.29999999999995</v>
       </c>
       <c r="F36" s="134" t="str">
         <f>Inputs!E66</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
@@ -11249,7 +11248,7 @@
       </c>
       <c r="D37" s="198">
         <f>Inputs!D67</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E37" s="88">
         <f t="shared" si="1"/>
@@ -11433,11 +11432,11 @@
       </c>
       <c r="D46" s="62">
         <f>IF(E46=0,0,E46/C46)</f>
-        <v>0.15650826446280994</v>
+        <v>0.21301652892561981</v>
       </c>
       <c r="E46" s="88">
         <f>E36+E37+E38+E39</f>
-        <v>454.50000000000006</v>
+        <v>618.59999999999991</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
@@ -11493,11 +11492,11 @@
       </c>
       <c r="D48" s="82">
         <f>E48/C48</f>
-        <v>0.39526881329099528</v>
+        <v>0.39676186663512547</v>
       </c>
       <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>43443.6</v>
+        <v>43607.700000000004</v>
       </c>
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
@@ -11520,11 +11519,11 @@
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>0.54842744976267577</v>
+        <v>0.54933737745641664</v>
       </c>
       <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>98905.600000000006</v>
+        <v>99069.700000000012</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
@@ -11683,15 +11682,15 @@
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>95608</v>
+        <v>93967</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
-        <v>0.39850535520040159</v>
+        <v>0.40197196888269282</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>38100.299999999996</v>
+        <v>37772.1</v>
       </c>
       <c r="F61" s="87"/>
       <c r="G61" s="87"/>
@@ -11725,15 +11724,15 @@
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
-        <v>141182</v>
+        <v>139541</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="2"/>
-        <v>0.56038942641413203</v>
+        <v>0.56462760049017846</v>
       </c>
       <c r="E63" s="61">
         <f>E61+E62</f>
-        <v>79116.899999999994</v>
+        <v>78788.7</v>
       </c>
       <c r="F63" s="87"/>
       <c r="G63" s="87"/>
@@ -11761,15 +11760,15 @@
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>140315</v>
+        <v>138674</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>0.55767309268431742</v>
+        <v>0.56190562037584546</v>
       </c>
       <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>78249.899999999994</v>
+        <v>77921.7</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11806,15 +11805,15 @@
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>39162</v>
+        <v>40803</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.50530361064297047</v>
+        <v>0.49704678577555605</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>19788.700000000012</v>
+        <v>20281.000000000015</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11842,15 +11841,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>26001</v>
+        <v>27642</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.25490173454867165</v>
+        <v>0.25757904637869961</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>6627.7000000000116</v>
+        <v>7120.0000000000146</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -12503,17 +12502,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>78249.899999999994</v>
+        <v>77921.7</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>8.1391816229444913</v>
+        <v>8.1050438232968176</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.5755077916994011</v>
+        <v>9.5353456744668446</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12524,27 +12523,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>95558.010287072728</v>
+        <v>95229.810287072731</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1565314637438071</v>
+        <v>9.1249539990697102</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8512637304769353</v>
+        <v>9.8171259308292615</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.772389957345656</v>
+        <v>10.735239998905541</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.693516184214374</v>
+        <v>11.653354066981819</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.489956317190231</v>
+        <v>12.449794199957674</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12646,27 +12645,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67853.216952693241</v>
+        <v>67713.731952693241</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.4492468541616628</v>
+        <v>7.4334581218246143</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.3032567149911252</v>
+        <v>8.2861878151672883</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7638198284254862</v>
+        <v>8.7452448492054291</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.2243829418598455</v>
+        <v>9.2043018832435681</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.855239658566237</v>
+        <v>10.83515859994996</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E661D-006A-4FE1-A66B-D3EC4D4A04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F250070-86C4-4470-B002-C0772B954962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4191,7 +4202,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2681704260651625E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4990,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.98</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5031,7 +5042,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65211.601889280006</v>
+        <v>64884.726691840006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5247,7 +5258,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39209457832848316</v>
+        <v>0.39012919197094686</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5263,7 +5274,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.580855376711007</v>
+        <v>34.407517755775118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5306,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2681704260651625E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5325,20 +5336,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4334581218246143</v>
+        <v>7.4389136492123615</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.460432389942453</v>
+        <v>12.470700196094882</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7452448492054291</v>
+        <v>8.751663116720426</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.83515859994996</v>
+        <v>10.844087127039028</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12261,17 +12272,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5141324110952637E-2</v>
+        <v>1.5217602821839048E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4098112214267376E-2</v>
+        <v>2.4219513283356885E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8917734657120855E-2</v>
+        <v>2.9063415940028266E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12312,17 +12323,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2681704260651625E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2681704260651625E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2681704260651625E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12382,14 +12393,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5730738293660291</v>
+        <v>3.5751921705337626</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3895365802608168</v>
+        <v>4.3926449649575714</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12410,14 +12421,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.587220036457229</v>
+        <v>13.610425530520157</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.587220036457229</v>
+        <v>13.610425530520157</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12460,21 +12471,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17834.110287072737</v>
+        <v>17846.739245616074</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7764491814639614</v>
+        <v>1.7775023714099829</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1823754664464929</v>
+        <v>2.1839208830020764</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9788155994223482</v>
+        <v>2.9809250031496886</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12523,27 +12534,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>95229.810287072731</v>
+        <v>95242.439245616071</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1249539990697102</v>
+        <v>9.1260584068328914</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8171259308292615</v>
+        <v>9.818179120775282</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.735239998905541</v>
+        <v>10.736539302156343</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.653354066981819</v>
+        <v>11.654899483537404</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.449794199957674</v>
+        <v>12.451903603685015</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12584,27 +12595,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55203.089482057519</v>
+        <v>55297.370354950872</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7419622445795184</v>
+        <v>5.7517688915918308</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.755249699505316</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.755249699505316</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.755249699505316</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2205229999422436</v>
+        <v>9.2362706503930436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12645,27 +12656,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67713.731952693241</v>
+        <v>67765.175660034278</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.4334581218246143</v>
+        <v>7.4389136492123615</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.2861878151672883</v>
+        <v>8.2924830260298954</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7452448492054291</v>
+        <v>8.751663116720426</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.2043018832435681</v>
+        <v>9.2108432074109565</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.83515859994996</v>
+        <v>10.844087127039028</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F250070-86C4-4470-B002-C0772B954962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60750B5-78D7-4A40-941C-5097635B7BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,13 +126,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +937,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>8171879936</v>
@@ -3678,7 +3703,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.20500000000000002</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>5344</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>1084</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>94</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>-151</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150">
         <v>910</v>
@@ -3966,7 +3991,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150">
         <v>160</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150">
         <v>69</v>
@@ -4024,7 +4049,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4042,7 +4067,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4078,7 +4103,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4128,7 +4153,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4146,7 +4171,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4164,7 +4189,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4180,7 +4205,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <v>0.57999999999999996</v>
@@ -4198,11 +4223,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4247,21 +4272,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>45574</v>
@@ -4273,7 +4298,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59">
         <v>843</v>
@@ -4285,7 +4310,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <v>8192</v>
@@ -4298,7 +4323,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59">
         <v>13</v>
@@ -4310,7 +4335,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59">
         <v>6</v>
@@ -4322,7 +4347,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4335,7 +4360,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4347,7 +4372,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59">
         <v>6401</v>
@@ -4360,7 +4385,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4370,12 +4395,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59">
         <v>9403</v>
@@ -4384,12 +4409,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59">
         <v>3</v>
@@ -4402,7 +4427,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120">
         <v>0</v>
@@ -4415,7 +4440,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -4428,7 +4453,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59">
         <v>1241</v>
@@ -4441,7 +4466,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59">
         <v>69365</v>
@@ -4454,7 +4479,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4467,7 +4492,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -4479,7 +4504,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59">
         <v>23342</v>
@@ -4488,12 +4513,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59">
         <v>1641</v>
@@ -4502,12 +4527,12 @@
         <v>0.3</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4516,12 +4541,12 @@
         <v>0.2</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <v>1263</v>
@@ -4534,7 +4559,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4547,7 +4572,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>0</v>
@@ -4559,7 +4584,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59">
         <v>10</v>
@@ -4572,7 +4597,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247">
         <v>0</v>
@@ -4584,13 +4609,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59">
         <v>20</v>
@@ -4598,13 +4623,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4618,7 +4643,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59">
         <v>832</v>
@@ -4626,7 +4651,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59">
         <v>15</v>
@@ -4634,19 +4659,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>6210</v>
@@ -4654,7 +4679,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>165790</v>
@@ -4662,19 +4687,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4682,10 +4707,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4693,18 +4718,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4713,20 +4738,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4744,7 +4769,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4765,7 +4790,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4786,7 +4811,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4804,7 +4829,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4825,7 +4850,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4843,7 +4868,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4861,7 +4886,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4947,8 +4972,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4989,62 +5014,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.94</v>
+        <v>7.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>64884.726691840006</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>64721.289093120002</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5067,16 +5092,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5101,40 +5126,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5147,29 +5172,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5179,12 +5204,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5194,29 +5219,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.60969766115231028</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5224,7 +5249,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5235,58 +5260,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39012919197094686</v>
+        <v>0.38914649879217872</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.407517755775118</v>
+        <v>34.320848945307162</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.038220193953223E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5295,18 +5320,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.22552196235025673</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5316,62 +5341,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4389136492123615</v>
+        <v>7.4416647248723553</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.470700196094882</v>
+        <v>12.475877936592653</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.751663116720426</v>
-      </c>
-      <c r="G29" s="274">
+        <v>8.7548996763204165</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.844087127039028</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>10.848589510080568</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5381,25 +5406,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5409,7 +5434,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5419,14 +5444,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5436,7 +5461,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5451,14 +5476,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6411,12 +6436,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6443,16 +6468,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6470,7 +6495,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6503,7 +6528,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6514,7 +6539,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6666,7 +6691,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6717,7 +6742,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6768,7 +6793,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6819,7 +6844,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6870,7 +6895,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6921,7 +6946,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6972,7 +6997,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7023,7 +7048,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7074,7 +7099,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7125,7 +7150,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7176,7 +7201,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7227,7 +7252,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7278,7 +7303,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7329,7 +7354,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7380,7 +7405,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7431,7 +7456,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7482,7 +7507,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7533,7 +7558,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7584,7 +7609,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7737,7 +7762,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7788,7 +7813,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7890,7 +7915,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8094,7 +8119,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8145,7 +8170,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8196,7 +8221,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8247,7 +8272,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8298,7 +8323,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8349,7 +8374,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8367,7 +8392,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8418,7 +8443,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8469,7 +8494,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8520,7 +8545,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8571,7 +8596,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8622,7 +8647,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8673,7 +8698,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8724,7 +8749,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8741,50 +8766,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.93462635482030809</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.21481263632576036</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.61030216311758267</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8793,15 +8818,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.73029092983456934</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.93462635482030809</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>1.3794293409645653</v>
+        <v>0.61030216311758267</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8844,167 +8869,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.73029092983456934</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>1.3794293409645653</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-0.2920410783055199</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>7.7784678170607288E-2</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>9.0171250069727232E-2</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4325259515570934</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.91929867364592111</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.90561164723601273</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9012,112 +9038,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>7.5684380032206122E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>1.4325259515570934</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>6.4256757610072962E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>7.5684380032206122E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.4256757610072962E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>9.0093374264517774</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>6.2044578976334614</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>1.4096145726521504E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>2.5999582931266443E-2</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>7.4914047891911457E-3</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>9.2024360440050492E-3</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9680,7 +9896,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10363,6 +10581,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10402,8 +10621,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10421,7 +10640,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10436,7 +10655,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10450,7 +10669,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10460,7 +10679,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10478,10 +10697,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10490,12 +10709,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>84515.700000000012</v>
       </c>
       <c r="E6" s="56">
@@ -10505,7 +10725,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10515,8 +10735,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10528,7 +10749,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10546,7 +10767,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10565,32 +10786,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10607,7 +10828,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10618,7 +10839,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10635,7 +10856,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10646,7 +10867,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10663,7 +10884,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10674,7 +10895,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10691,7 +10912,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10702,7 +10923,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10719,7 +10940,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10729,7 +10950,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10751,7 +10972,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10773,7 +10994,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10794,7 +11015,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10819,7 +11040,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10846,7 +11067,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10867,7 +11088,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10884,7 +11105,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10896,13 +11117,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10924,7 +11145,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10944,7 +11165,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10953,7 +11174,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10973,7 +11194,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10986,7 +11207,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11006,7 +11227,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11052,7 +11273,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11061,7 +11282,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11077,7 +11298,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11087,7 +11308,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11104,7 +11325,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11114,7 +11335,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11131,7 +11352,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11141,7 +11362,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11161,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11171,7 +11392,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11188,7 +11409,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11198,7 +11419,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11224,7 +11445,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11251,7 +11472,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11278,7 +11499,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11299,7 +11520,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11320,7 +11541,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11341,7 +11562,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11362,7 +11583,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11379,7 +11600,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11397,7 +11618,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11416,7 +11637,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11435,7 +11656,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11452,7 +11673,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11465,7 +11686,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11482,7 +11703,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11495,7 +11716,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11512,7 +11733,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11539,7 +11760,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11555,14 +11776,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11579,7 +11800,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11609,7 +11830,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11620,14 +11841,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11635,30 +11856,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11675,11 +11896,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11689,7 +11910,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11710,7 +11931,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11731,7 +11952,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11752,7 +11973,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11767,7 +11988,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11798,11 +12019,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11812,7 +12033,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11833,7 +12054,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11848,7 +12069,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11870,21 +12091,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11894,23 +12115,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11931,7 +12152,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11961,7 +12182,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11982,7 +12203,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12012,7 +12233,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12042,7 +12263,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12073,7 +12294,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12100,12 +12321,12 @@
         <v>0.02</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12135,7 +12356,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12165,7 +12386,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12195,7 +12416,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12216,7 +12437,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12247,7 +12468,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12268,28 +12489,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5217602821839048E-2</v>
+        <v>1.5256031111793187E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4219513283356885E-2</v>
+        <v>2.428067367043607E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9063415940028266E-2</v>
+        <v>2.9136808404523287E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12319,21 +12540,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12350,29 +12571,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12389,24 +12610,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5751921705337626</v>
+        <v>3.5762597456480756</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3926449649575714</v>
+        <v>4.3942115983787531</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12417,18 +12638,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.610425530520157</v>
+        <v>13.622128181080843</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.610425530520157</v>
+        <v>13.622128181080843</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12447,51 +12668,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17846.739245616074</v>
+        <v>17853.104271331635</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7775023714099829</v>
+        <v>1.7780331449200029</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1839208830020764</v>
+        <v>2.1846997766918288</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9809250031496886</v>
+        <v>2.9819881477409829</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12509,7 +12730,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12530,31 +12751,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>95242.439245616071</v>
+        <v>95248.804271331639</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1260584068328914</v>
+        <v>9.1266150153927956</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.818179120775282</v>
+        <v>9.8187098942853019</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.736539302156343</v>
+        <v>10.73719413575623</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.654899483537404</v>
+        <v>11.655678377227156</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.451903603685015</v>
+        <v>12.45296674827631</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,58 +12785,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55297.370354950872</v>
+        <v>55344.916686308236</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7517688915918308</v>
+        <v>5.7567144343519141</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.766786931284507</v>
+        <v>6.7726052168846049</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.766786931284507</v>
+        <v>6.7726052168846049</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.766786931284507</v>
+        <v>6.7726052168846049</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2362706503930436</v>
+        <v>9.244212271884825</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12625,58 +12846,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67765.175660034278</v>
+        <v>67791.117534411474</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.4389136492123615</v>
+        <v>7.4416647248723553</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.2924830260298954</v>
+        <v>8.2956575555849525</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.751663116720426</v>
+        <v>8.7548996763204165</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.2108432074109565</v>
+        <v>9.2141417970558805</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.844087127039028</v>
+        <v>10.848589510080568</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12685,7 +12906,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12694,6 +12915,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60750B5-78D7-4A40-941C-5097635B7BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9FA51D-03A1-4574-ACE5-7AA7D273C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.60969766115231028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12367370222475756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0724472333143184E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.038220193953223E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22552196235025673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>8171879936</v>
@@ -3703,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>94</v>
@@ -4067,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4171,7 +3334,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4205,7 +3368,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <v>0.57999999999999996</v>
@@ -4223,11 +3386,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4272,13 +3435,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4347,7 +3510,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4360,7 +3523,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4479,7 +3642,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4492,7 +3655,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -4679,7 +3842,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>165790</v>
@@ -4699,7 +3862,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4707,10 +3870,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4720,16 +3883,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4738,10 +3901,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4790,7 +3953,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4811,7 +3974,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4829,7 +3992,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4868,7 +4031,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4886,7 +4049,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4972,8 +4135,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5014,62 +4177,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.92</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>64721.289093120002</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>64884.726691840006</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5092,16 +4255,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5126,40 +4289,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5172,29 +4335,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5204,12 +4367,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5217,9 +4380,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5227,91 +4390,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.60969766115231028</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>1.4096145726521505E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.12367370222475756</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.91929867364592111</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>4.8601561460320276E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0.02</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.26662863662293212</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38914649879217872</v>
+        <v>0.39012919197094686</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.320848945307162</v>
+        <v>34.407517755775118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.038220193953223E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0.02</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5320,18 +4483,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.22552196235025673</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>3.0382201939532231E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5341,62 +4504,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4416647248723553</v>
+        <v>7.4389136492123615</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>12.475877936592653</v>
+        <v>12.470700196094882</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7548996763204165</v>
-      </c>
-      <c r="G29" s="278">
+        <v>8.751663116720426</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.848589510080568</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>10.844087127039028</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5406,7 +4569,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5417,14 +4580,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5434,7 +4597,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5444,14 +4607,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5461,7 +4624,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5476,14 +4639,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6427,7 +5590,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6441,7 +5603,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6468,16 +5630,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6495,7 +5657,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6528,7 +5690,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6895,7 +6057,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6946,7 +6108,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6997,7 +6159,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7048,7 +6210,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7150,7 +6312,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7303,7 +6465,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7813,7 +6975,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8323,7 +7485,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8374,7 +7536,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8443,7 +7605,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8647,7 +7809,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8749,7 +7911,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8767,15 +7929,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.21481263632576036</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>#VALUE!</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>4.8601561460320276E-2</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>6.6274334802253587E-2</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8818,7 +7980,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8869,7 +8031,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8920,7 +8082,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8971,7 +8133,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8988,7 +8150,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9188,11 +8350,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9238,7 +8400,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9288,7 +8450,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10792,7 +9954,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10950,7 +10112,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11362,7 +10524,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11830,7 +10992,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11844,11 +11006,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11859,11 +11021,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11875,11 +11037,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11896,7 +11058,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11973,7 +11135,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12019,7 +11181,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12054,7 +11216,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12093,19 +11255,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12115,18 +11277,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12203,7 +11365,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12233,7 +11395,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12263,7 +11425,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12326,7 +11488,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12356,7 +11518,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12437,7 +11599,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12468,7 +11630,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12489,28 +11651,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5256031111793187E-2</v>
+        <v>1.5217602821839048E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.428067367043607E-2</v>
+        <v>2.4219513283356885E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9136808404523287E-2</v>
+        <v>2.9063415940028266E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12540,21 +11702,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12576,24 +11738,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12610,24 +11772,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5762597456480756</v>
+        <v>3.5751921705337626</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3942115983787531</v>
+        <v>4.3926449649575714</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12638,18 +11800,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.622128181080843</v>
+        <v>13.610425530520157</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.622128181080843</v>
+        <v>13.610425530520157</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12668,14 +11830,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12692,21 +11854,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17853.104271331635</v>
+        <v>17846.739245616074</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7780331449200029</v>
+        <v>1.7775023714099829</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1846997766918288</v>
+        <v>2.1839208830020764</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9819881477409829</v>
+        <v>2.9809250031496886</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12755,27 +11917,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>95248.804271331639</v>
+        <v>95242.439245616071</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1266150153927956</v>
+        <v>9.1260584068328914</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8187098942853019</v>
+        <v>9.818179120775282</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.73719413575623</v>
+        <v>10.736539302156343</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.655678377227156</v>
+        <v>11.654899483537404</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.45296674827631</v>
+        <v>12.451903603685015</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12785,21 +11947,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12812,31 +11974,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55344.916686308236</v>
+        <v>55297.370354950872</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7567144343519141</v>
+        <v>5.7517688915918308</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.7726052168846049</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.7726052168846049</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7726052168846049</v>
+        <v>6.766786931284507</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.244212271884825</v>
+        <v>9.2362706503930436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12846,21 +12008,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12873,31 +12035,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67791.117534411474</v>
+        <v>67765.175660034278</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.4416647248723553</v>
+        <v>7.4389136492123615</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.2956575555849525</v>
+        <v>8.2924830260298954</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7548996763204165</v>
+        <v>8.751663116720426</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>9.2141417970558805</v>
+        <v>9.2108432074109565</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.848589510080568</v>
+        <v>10.844087127039028</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12906,7 +12068,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9FA51D-03A1-4574-ACE5-7AA7D273C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFDFCF5-A707-49E8-B35A-756A9E59409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>8171879936</v>
@@ -2866,7 +2886,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>94</v>
@@ -3192,9 +3212,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3212,7 +3232,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3230,7 +3250,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3247,10 +3267,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>10902</v>
       </c>
@@ -3264,9 +3285,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3315,10 +3336,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>163105</v>
       </c>
@@ -3334,9 +3356,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>756</v>
       </c>
@@ -3352,7 +3374,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3368,7 +3390,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.57999999999999996</v>
@@ -3386,7 +3408,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3435,13 +3457,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3461,7 +3483,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>843</v>
@@ -3473,7 +3495,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>8192</v>
@@ -3510,7 +3532,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3523,7 +3545,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3563,7 +3585,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59">
         <v>9403</v>
@@ -3642,7 +3664,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3655,7 +3677,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -3709,7 +3731,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>1263</v>
@@ -3842,7 +3864,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>165790</v>
@@ -3862,7 +3884,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3870,10 +3892,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3881,7 +3903,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3889,10 +3911,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3914,7 +3936,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3953,7 +3975,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3974,7 +3996,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3992,7 +4014,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4031,7 +4053,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4049,7 +4071,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4072,28 +4094,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4135,8 +4162,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4177,7 +4204,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4192,12 +4219,12 @@
         <v>7.94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4217,7 +4244,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4264,7 +4291,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4289,40 +4316,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4335,29 +4362,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4367,12 +4394,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4382,7 +4409,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4390,21 +4417,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>1.4096145726521505E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4412,53 +4439,53 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.91929867364592111</v>
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>4.8601561460320276E-2</v>
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.26662863662293212</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39012919197094686</v>
+        <v>176</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -4467,14 +4494,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4483,14 +4510,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>3.0382201939532231E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4504,40 +4531,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="130">
+        <v>161</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4389136492123615</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>12.470700196094882</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.751663116720426</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.844087127039028</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4545,21 +4572,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4569,25 +4596,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4597,7 +4624,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4607,14 +4634,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4624,7 +4651,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4639,14 +4666,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5546,27 +5573,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5598,12 +5625,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5630,16 +5657,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5657,7 +5684,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5690,7 +5717,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5701,7 +5728,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6057,7 +6084,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6108,7 +6135,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6159,7 +6186,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6210,7 +6237,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6312,7 +6339,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6465,7 +6492,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6720,7 +6747,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6771,7 +6798,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6825,15 +6852,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>180344</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>179270</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>174007</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6873,50 +6900,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>70435</v>
+        <f>Fin_Analysis!C13</f>
+        <v>8192</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>67641</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>7251</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6924,50 +6951,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>8192</v>
+        <f>Fin_Analysis!C18</f>
+        <v>6401</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>7251</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>16389</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6975,101 +7002,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>6401</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>16389</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>10902</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>7818</v>
-      </c>
-      <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>10902</v>
+        <f>Fin_Analysis!I15</f>
+        <v>20</v>
+      </c>
+      <c r="D31" s="199" t="str">
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7077,101 +7104,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>6210</v>
-      </c>
-      <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>5263</v>
+        <f>Fin_Analysis!I34</f>
+        <v>847</v>
+      </c>
+      <c r="D32" s="199" t="str">
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>20</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>867</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7179,50 +7206,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>847</v>
-      </c>
-      <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v/>
+        <f>Inputs!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="199">
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>163105</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7230,50 +7257,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>867</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>756</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7281,50 +7308,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>166316</v>
-      </c>
-      <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>163105</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="199" t="str">
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7332,272 +7359,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>526</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>756</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>40803</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>139541</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>5.727520035291523E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>40803</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>5.727520035291523E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.60969766115231028</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.54641865162865078</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.12367370222475756</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>9.5025671239794635E-2</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.60969766115231028</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.54641865162865078</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0.1038220193953223</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0.21387088628903292</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7605,50 +7632,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.12367370222475756</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>9.5025671239794635E-2</v>
+        <f t="shared" si="37"/>
+        <v>8.0801279353589772E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7656,50 +7683,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0.1038220193953223</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0.21387088628903292</v>
+        <f t="shared" si="38"/>
+        <v>3.2820226152532532E-3</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7707,50 +7734,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>1.0724472333143184E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.038220193953223E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>8.0801279353589772E-3</v>
+        <f t="shared" si="39"/>
+        <v>7.5751199393990403E-3</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7758,221 +7785,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.1416999429549344</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.2820226152532532E-3</v>
+        <f t="shared" si="40"/>
+        <v>0.12574752035251038</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.038220193953223E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>7.5751199393990403E-3</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.1416999429549344</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.12574752035251038</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>6.8278862344618316E-2</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.93462635482030809</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.61030216311758267</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>4.8601561460320276E-2</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>6.6274334802253587E-2</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.73029092983456934</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>1.3794293409645653</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7980,522 +8007,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.93462635482030809</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.61030216311758267</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.2920410783055199</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.73029092983456934</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>1.3794293409645653</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-0.2920410783055199</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.93300269529386748</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>1.4325259515570934</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.91929867364592111</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.90561164723601273</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>7.5684380032206122E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.4256757610072962E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>1.4325259515570934</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>7.5684380032206122E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.4256757610072962E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>9.0093374264517774</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>6.2044578976334614</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>2.5999582931266443E-2</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>9.2024360440050492E-3</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>1.4096145726521504E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>2.5999582931266443E-2</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>7.4914047891911457E-3</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>9.2024360440050492E-3</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9055,12 +8986,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9742,27 +9669,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9876,13 +9806,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>84515.700000000012</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.49183662425743757</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9902,9 +9832,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>10.342259145007587</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9954,7 +9884,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10001,7 +9931,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10029,7 +9959,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10112,7 +10042,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10134,7 +10064,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10202,7 +10132,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10524,7 +10454,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10661,7 +10591,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10948,9 +10878,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10968,13 +10898,13 @@
         <f>MAX(D4,0)</f>
         <v>526</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>526</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10992,7 +10922,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11058,7 +10988,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11093,7 +11023,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11114,7 +11044,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11135,7 +11065,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11150,7 +11080,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11181,7 +11111,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11195,7 +11125,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11216,7 +11146,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11231,7 +11161,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11253,7 +11183,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11261,11 +11191,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11293,7 +11223,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11365,7 +11295,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11395,7 +11325,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11425,7 +11355,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11483,12 +11413,12 @@
         <v>0.02</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11518,7 +11448,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11548,7 +11478,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11599,7 +11529,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11630,7 +11560,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11651,7 +11581,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -11672,7 +11602,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11702,7 +11632,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11733,27 +11663,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11772,14 +11702,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>3.5751921705337626</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -11789,7 +11719,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11800,14 +11730,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>13.610425530520157</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11830,14 +11760,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11850,7 +11780,7 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
@@ -11874,25 +11804,25 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="91">
+        <v>140</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-526</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-6.4367073931517929E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11915,29 +11845,29 @@
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>95242.439245616071</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1260584068328914</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.818179120775282</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>10.736539302156343</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.654899483537404</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.451903603685015</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11947,21 +11877,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11974,7 +11904,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12008,21 +11938,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12035,31 +11965,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="91">
+        <v>185</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67765.175660034278</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>7.4389136492123615</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>8.2924830260298954</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>8.751663116720426</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>9.2108432074109565</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>10.844087127039028</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12068,7 +11998,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFDFCF5-A707-49E8-B35A-756A9E59409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3122A23-20A0-4EF6-9845-D9A3AE854AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>8171879936</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.20500000000000002</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,429 +3048,433 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>8765</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>11881</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>5344</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>6492</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>1084</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1129</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>94</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>96</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-151</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>31</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>910</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>2541</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>160</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>198</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>69</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>108</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>67641</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>7251</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>16389</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>14028</v>
+      </c>
+      <c r="D37" s="149">
         <v>10902</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>5263</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>166316</v>
+      </c>
+      <c r="D41" s="149">
         <v>163105</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>526</v>
+      </c>
+      <c r="D42" s="149">
         <v>756</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3047858942065488E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3545,7 +3557,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3579,7 +3591,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3593,7 +3605,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3614,10 +3626,10 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>0</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3677,7 +3689,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -3697,7 +3709,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3711,7 +3723,7 @@
       <c r="D66" s="60">
         <v>0.3</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3725,7 +3737,7 @@
       <c r="D67" s="60">
         <v>0.2</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3781,16 +3793,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>0</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3816,7 +3828,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3852,21 +3864,21 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214">
         <v>6210</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59">
+        <v>266</v>
+      </c>
+      <c r="C83" s="214">
         <v>165790</v>
       </c>
     </row>
@@ -3884,20 +3896,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3927,10 +3939,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3942,12 +3954,12 @@
         <f>C25</f>
         <v>8765</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>8765</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91*1.2</f>
         <v>10518</v>
       </c>
@@ -3960,75 +3972,75 @@
         <f>C26</f>
         <v>5344</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>5344</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>6412.7999999999993</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1084</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>1084</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>1300.8</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>94</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>112.80000000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>91</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>91</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>109.2</v>
       </c>
@@ -4041,12 +4053,12 @@
         <f>MAX(C31,0)</f>
         <v>910</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*2%</f>
         <v>210.36</v>
       </c>
@@ -4059,12 +4071,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4073,16 +4085,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.57999999999999996</v>
       </c>
@@ -4162,8 +4174,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4215,11 +4227,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>7.94</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>7.78</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4257,7 +4269,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>64884.726691840006</v>
+        <v>63577.225902080005</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4267,11 +4279,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4293,11 +4305,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
@@ -4305,7 +4317,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4315,10 +4327,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4326,7 +4338,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4334,13 +4346,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4349,12 +4361,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4364,7 +4376,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4375,7 +4387,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4383,13 +4395,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4399,129 +4411,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>1.4096145726521505E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.91929867364592111</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>4.8601561460320276E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.38226764654080186</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>34.407517755775118</v>
+        <v>33.714167272031538</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>2.5133955035704743</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>3.0382201939532231E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3047858942065488E-2</v>
+        <v>7.4550128534704357E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4538,10 +4550,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4549,22 +4561,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>7.4613699784552878</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>12.512964032561872</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>8.7780823275944559</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>10.880838289184236</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4572,23 +4584,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4596,9 +4608,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4606,17 +4618,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4624,26 +4636,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4651,9 +4663,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4666,16 +4678,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5627,10 +5639,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5656,16 +5668,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5679,11 +5691,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5708,7 +5720,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5716,7 +5728,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5780,47 +5792,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>8765</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11881</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5882,47 +5894,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>5344</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6492</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5933,47 +5945,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3421</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>5389</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5984,47 +5996,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1084</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1129</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6035,47 +6047,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6084,49 +6096,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38.9937106918239</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6134,50 +6146,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.35527365451630133</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6185,50 +6197,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2337</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4221.0062893081758</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6236,50 +6248,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.44634055487677682</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6290,47 +6302,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>910</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>2541</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6339,49 +6351,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>94</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>96</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6392,47 +6404,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.825442099258414E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>1.6665263866677889E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6443,47 +6455,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>160</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>198</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6492,49 +6504,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>7.8722190530519116E-3</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>9.0901439272788494E-3</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6545,47 +6557,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>69</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>108</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6596,47 +6608,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1242</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1494.0062893081758</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6647,47 +6659,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>9.9969278680245743E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6698,7 +6710,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>987.38999999999987</v>
       </c>
@@ -6746,50 +6758,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.16867819841968104</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6853,7 +6865,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>180344</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6906,43 +6918,43 @@
         <f>Fin_Analysis!C13</f>
         <v>8192</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>7251</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6957,43 +6969,43 @@
         <f>Fin_Analysis!C18</f>
         <v>6401</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>16389</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7002,49 +7014,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>14028</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>10902</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7059,43 +7071,43 @@
         <f>Fin_Analysis!I15</f>
         <v>20</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7110,43 +7122,43 @@
         <f>Fin_Analysis!I34</f>
         <v>847</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7210,45 +7222,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>166316</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>163105</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7261,45 +7273,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>526</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>756</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7314,43 +7326,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7412,47 +7424,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>5.727520035291523E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7461,7 +7473,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7481,47 +7493,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.54641865162865078</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7530,49 +7542,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>9.5025671239794635E-2</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7583,47 +7595,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0.21387088628903292</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7634,47 +7646,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>8.0801279353589772E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7685,47 +7697,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.2820226152532532E-3</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7734,49 +7746,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>7.5751199393990403E-3</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7787,47 +7799,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.12574752035251038</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7836,9 +7848,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7853,50 +7867,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>4.8601561460320276E-2</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>6.8278862344618316E-2</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7905,49 +7919,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.93462635482030809</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.61030216311758267</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7956,49 +7970,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.73029092983456934</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>1.3794293409645653</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8007,49 +8021,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.2920410783055199</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8058,7 +8072,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8075,49 +8089,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.91929867364592111</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.93300269529386748</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8127,47 +8141,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.4325259515570934</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8177,47 +8191,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>7.5684380032206122E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>6.4256757610072962E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8227,47 +8241,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8275,149 +8289,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>1.4096145726521504E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>2.5999582931266443E-2</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>7.4914047891911457E-3</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>9.2024360440050492E-3</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9713,8 +9727,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9750,8 +9764,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>166316</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9763,8 +9777,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>165790</v>
       </c>
       <c r="K3" s="24"/>
@@ -9774,8 +9788,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>526</v>
       </c>
       <c r="E4" s="37"/>
@@ -9806,13 +9820,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>84515.700000000012</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.49183662425743757</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9832,9 +9846,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>10.342259145007587</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9862,11 +9876,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
@@ -9909,7 +9923,7 @@
         <f>Inputs!C48</f>
         <v>45574</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9937,7 +9951,7 @@
         <f>Inputs!C49</f>
         <v>843</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9965,7 +9979,7 @@
         <f>Inputs!C50</f>
         <v>8192</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9993,7 +10007,7 @@
         <f>Inputs!C51</f>
         <v>13</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10006,7 +10020,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10021,7 +10035,7 @@
         <f>Inputs!C52</f>
         <v>6</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10048,7 +10062,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10070,7 +10084,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10092,7 +10106,7 @@
         <f>Inputs!C55</f>
         <v>6401</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10121,7 +10135,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10138,7 +10152,7 @@
         <f>Inputs!C57</f>
         <v>9403</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10146,7 +10160,7 @@
         <f t="shared" si="0"/>
         <v>5641.8</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10165,7 +10179,7 @@
         <f>Inputs!C58</f>
         <v>3</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10186,7 +10200,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10351,7 +10365,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>7818</v>
       </c>
@@ -10380,7 +10394,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10406,7 +10420,7 @@
         <f>Inputs!C61</f>
         <v>1241</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10433,7 +10447,7 @@
         <f>Inputs!C62</f>
         <v>69365</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10460,7 +10474,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10476,7 +10490,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10490,7 +10504,7 @@
         <f>Inputs!C64</f>
         <v>13047</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f>Inputs!C65</f>
         <v>23342</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10525,7 +10539,7 @@
         <f t="shared" si="1"/>
         <v>2334.2000000000003</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10543,7 +10557,7 @@
         <f>Inputs!C66</f>
         <v>1641</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.3</v>
       </c>
@@ -10551,7 +10565,7 @@
         <f t="shared" si="1"/>
         <v>492.29999999999995</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10570,7 +10584,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.2</v>
       </c>
@@ -10578,7 +10592,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10597,7 +10611,7 @@
         <f>Inputs!C68</f>
         <v>1263</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10618,7 +10632,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10639,7 +10653,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10660,7 +10674,7 @@
         <f>Inputs!C71</f>
         <v>10</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10681,7 +10695,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10827,8 +10841,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>6210</v>
       </c>
       <c r="J48" s="8"/>
@@ -10854,8 +10868,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>14028</v>
       </c>
       <c r="J49" s="87"/>
@@ -10878,9 +10892,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10898,13 +10912,13 @@
         <f>MAX(D4,0)</f>
         <v>526</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>526</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10925,7 +10939,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11025,7 +11039,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>45574</v>
       </c>
@@ -11033,7 +11047,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>41016.6</v>
       </c>
@@ -11064,11 +11078,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>867</v>
@@ -11145,12 +11159,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>13161</v>
       </c>
@@ -11229,17 +11243,17 @@
         <f>Data!C6</f>
         <v>8765</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>8765</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>10518</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11250,23 +11264,23 @@
         <f>Data!C8</f>
         <v>5344</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>5344</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>6412.7999999999993</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.60969766115231028</v>
       </c>
@@ -11276,48 +11290,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>3421</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3421</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>4105.2000000000007</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1084</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>1084</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>1300.8</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.12367370222475756</v>
       </c>
@@ -11331,54 +11345,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>2337</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>2337</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>2804.4000000000005</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.26662863662293218</v>
       </c>
@@ -11392,55 +11406,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>910</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>175.3</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0.02</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>210.36</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0.02</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>94</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>94</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>112.80000000000001</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
@@ -11448,29 +11462,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>91</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>91</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>109.2</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.038220193953223E-2</v>
       </c>
@@ -11480,27 +11494,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1242</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1976.7</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.22552196235025671</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>2372.0400000000004</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.22552196235025673</v>
       </c>
@@ -11510,49 +11524,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.20500000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>987.38999999999987</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1571.4765</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.17928996006845407</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1885.7718000000002</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.1792899600684541</v>
       </c>
@@ -11562,69 +11576,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.12082776640540205</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.19230293546985366</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.23076352256382443</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5217602821839048E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>1.5530561234627512E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4219513283356885E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>2.4717600960135432E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9063415940028266E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>2.9661121152162521E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>4.8002211516016979</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>3.0160746042845692</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>2.5133955035704743</v>
       </c>
@@ -11632,23 +11646,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3047858942065488E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11670,7 +11684,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11693,27 +11707,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5751921705337626</v>
+        <v>3.5838938794048603</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3926449649575714</v>
+        <v>4.4054165708617878</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11721,27 +11735,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.610425530520157</v>
+        <v>13.705965812491621</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.610425530520157</v>
+        <v>13.705965812491621</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11755,25 +11769,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11784,21 +11798,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17846.739245616074</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>17898.62860206046</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7775023714099829</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>1.7818286586180314</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1839208830020764</v>
-      </c>
-      <c r="I97" s="123">
+        <v>2.190270628330051</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9809250031496886</v>
+        <v>2.9895920362638981</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11806,18 +11820,18 @@
       <c r="B98" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-526</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-6.4367073931517929E-2</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11828,46 +11842,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>77921.7</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>8.1050438232968176</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>9.5353456744668446</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>95294.328602060457</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>9.1305957206607005</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>9.822505407983332</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>10.741877318424354</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>11.661249228865378</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>12.460570636799225</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11879,25 +11893,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11908,27 +11922,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55297.370354950872</v>
+        <v>55685.537965445168</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7517688915918308</v>
-      </c>
-      <c r="E103" s="123">
+        <v>5.7921442362498743</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.766786931284507</v>
+        <v>6.8142873367645578</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.766786931284507</v>
-      </c>
-      <c r="H103" s="123">
+        <v>6.8142873367645578</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.766786931284507</v>
+        <v>6.8142873367645578</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2362706503930436</v>
+        <v>9.3011059415692472</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11940,25 +11954,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11967,29 +11981,29 @@
       <c r="B106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>67976.936415097822</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>7.4613699784552878</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>8.3183963723739449</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>8.7780823275944559</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>9.2377682828149688</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>10.880838289184236</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12000,14 +12014,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3122A23-20A0-4EF6-9845-D9A3AE854AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3D6DD7-0B2F-41A5-9446-5BA34762509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.4454428754813853E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4174,8 +4174,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>63577.225902080005</v>
+        <v>63658.944701439999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38226764654080186</v>
+        <v>0.38275899313018591</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.714167272031538</v>
+        <v>33.757501677265509</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.4454428754813853E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4563,20 +4563,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4613699784552878</v>
+        <v>7.4599359144480477</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>12.512964032561872</v>
+        <v>12.510265108894339</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7780823275944559</v>
+        <v>8.7763951934682911</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.880838289184236</v>
+        <v>10.878491399038557</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11599,17 +11599,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5530561234627512E-2</v>
+        <v>1.5510624699024653E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4717600960135432E-2</v>
+        <v>2.4685871048761701E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9661121152162521E-2</v>
+        <v>2.9623045258514048E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11650,17 +11650,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.4454428754813853E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.4454428754813853E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.4454428754813853E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11720,14 +11720,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5838938794048603</v>
+        <v>3.5833390456003484</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4054165708617878</v>
+        <v>4.4046020904269296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11748,14 +11748,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.705965812491621</v>
+        <v>13.69986361090943</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.705965812491621</v>
+        <v>13.69986361090943</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11798,21 +11798,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17898.62860206046</v>
+        <v>17895.319475086268</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7818286586180314</v>
+        <v>1.7815528081584711</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.190270628330051</v>
+        <v>2.1898656876064839</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9895920362638981</v>
+        <v>2.9890393157248574</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11861,27 +11861,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>95294.328602060457</v>
+        <v>95291.019475086272</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1305957206607005</v>
+        <v>9.1303063844078718</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.822505407983332</v>
+        <v>9.8222295575237712</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.741877318424354</v>
+        <v>10.741536922832791</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.661249228865378</v>
+        <v>11.660844288141812</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.460570636799225</v>
+        <v>12.460017916260185</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11922,27 +11922,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55685.537965445168</v>
+        <v>55660.745522320278</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7921442362498743</v>
+        <v>5.7895654444882227</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8142873367645578</v>
+        <v>6.8112534641037916</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.8142873367645578</v>
+        <v>6.8112534641037916</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8142873367645578</v>
+        <v>6.8112534641037916</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3011059415692472</v>
+        <v>9.2969648818169297</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11983,27 +11983,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67976.936415097822</v>
+        <v>67963.413085117456</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.4613699784552878</v>
+        <v>7.4599359144480477</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>8.3183963723739449</v>
+        <v>8.316741510813781</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.7780823275944559</v>
+        <v>8.7763951934682911</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>9.2377682828149688</v>
+        <v>9.2360488761228012</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.880838289184236</v>
+        <v>10.878491399038557</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3D6DD7-0B2F-41A5-9446-5BA34762509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5B6510-CB1E-40C0-AFF6-505D87E4733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>8171879936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>8171879936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,445 +3039,446 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>8765</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>11881</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>5344</v>
+      </c>
+      <c r="D26" s="148">
+        <v>6492</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>1084</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1129</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>5344</v>
-      </c>
-      <c r="D26" s="149">
-        <v>6492</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>94</v>
+      </c>
+      <c r="D29" s="148">
+        <v>96</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-151</v>
+      </c>
+      <c r="D30" s="148">
+        <v>31</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148">
+        <v>910</v>
+      </c>
+      <c r="D31" s="148">
+        <v>2541</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>1084</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1129</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>160</v>
+      </c>
+      <c r="D32" s="148">
+        <v>198</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>94</v>
-      </c>
-      <c r="D29" s="149">
-        <v>96</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
+      <c r="C33" s="148">
+        <v>69</v>
+      </c>
+      <c r="D33" s="148">
         <v>108</v>
       </c>
-      <c r="C30" s="149">
-        <v>-151</v>
-      </c>
-      <c r="D30" s="149">
-        <v>31</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149">
-        <v>910</v>
-      </c>
-      <c r="D31" s="149">
-        <v>2541</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149">
-        <v>160</v>
-      </c>
-      <c r="D32" s="149">
-        <v>198</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149">
-        <v>69</v>
-      </c>
-      <c r="D33" s="149">
-        <v>108</v>
-      </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>67641</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>7251</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>16389</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148">
         <v>14028</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>10902</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>5263</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>166316</v>
+      </c>
+      <c r="D41" s="148">
+        <v>163105</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>166316</v>
-      </c>
-      <c r="D41" s="149">
-        <v>163105</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>526</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>756</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4454428754813853E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>45574</v>
@@ -3491,11 +3486,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>843</v>
@@ -3503,11 +3498,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>8192</v>
@@ -3516,11 +3511,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>13</v>
@@ -3528,11 +3523,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>6</v>
@@ -3540,11 +3535,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3553,11 +3548,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3565,11 +3560,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>6401</v>
@@ -3578,11 +3573,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -3591,13 +3586,13 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>43</v>
+      <c r="E56" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59">
         <v>9403</v>
@@ -3605,13 +3600,13 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>3</v>
@@ -3620,24 +3615,24 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118">
         <v>0</v>
       </c>
-      <c r="D59" s="194">
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -3646,11 +3641,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>1241</v>
@@ -3659,11 +3654,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>69365</v>
@@ -3672,11 +3667,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3685,11 +3680,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -3697,11 +3692,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>23342</v>
@@ -3709,13 +3704,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>1641</v>
@@ -3723,13 +3718,13 @@
       <c r="D66" s="60">
         <v>0.3</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>43</v>
+      <c r="E66" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -3737,13 +3732,13 @@
       <c r="D67" s="60">
         <v>0.2</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>1263</v>
@@ -3752,11 +3747,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -3765,11 +3760,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>0</v>
@@ -3777,11 +3772,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>10</v>
@@ -3790,29 +3785,29 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242">
         <v>0</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>20</v>
@@ -3820,27 +3815,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>7818</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>832</v>
@@ -3848,7 +3843,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>15</v>
@@ -3856,77 +3851,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214">
+        <v>262</v>
+      </c>
+      <c r="C82" s="212">
         <v>6210</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214">
+        <v>263</v>
+      </c>
+      <c r="C83" s="212">
         <v>165790</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3935,166 +3930,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>8765</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>8765</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91*1.2</f>
         <v>10518</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>5344</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>5344</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>6412.7999999999993</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1084</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>1084</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>1300.8</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>94</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>112.80000000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>91</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>91</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>109.2</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>910</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*2%</f>
         <v>210.36</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.57999999999999996</v>
       </c>
@@ -4107,32 +4102,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4191,13 +4186,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4208,82 +4203,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0083.HK : SINO LAND</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>7.79</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>7.78</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>63658.944701439999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>63577.225902080005</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4294,30 +4289,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4327,280 +4322,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>1.4096145726521505E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.91929867364592111</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>4.8601561460320276E-2</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38275899313018591</v>
+        <v>0.38226764654080186</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.757501677265509</v>
+        <v>33.714167272031538</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>2.5133955035704743</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>3.0382201939532231E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4454428754813853E-2</v>
+        <v>7.4550128534704357E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4599359144480477</v>
-      </c>
-      <c r="D29" s="128">
+        <v>7.4613699784552878</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>12.510265108894339</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>12.512964032561872</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7763951934682911</v>
-      </c>
-      <c r="G29" s="286">
+        <v>8.7780823275944559</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.878491399038557</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>10.880838289184236</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4608,9 +4603,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4618,17 +4613,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4636,26 +4631,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4663,9 +4658,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4678,16 +4673,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5639,10 +5634,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5668,59 +5663,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>2337</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5728,19 +5723,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5789,928 +5784,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>8765</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11881</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.26226748590186011</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>5344</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6492</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3421</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>5389</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1084</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1129</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>38.9937106918239</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.35527365451630133</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2337</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4221.0062893081758</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.44634055487677682</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>910</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>2541</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>94</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>96</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.825442099258414E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>1.6665263866677889E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>160</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>198</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>7.8722190530519116E-3</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>9.0901439272788494E-3</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>69</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>108</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1242</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1494.0062893081758</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>9.9969278680245743E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>987.38999999999987</v>
       </c>
@@ -6754,63 +6749,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.16867819841968104</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6856,11 +6851,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41820</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6907,266 +6902,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>8192</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>7251</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>6401</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>16389</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>14028</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>10902</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>20</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>847</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7213,165 +7208,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>166316</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>163105</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>526</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>756</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7417,63 +7412,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>5.727520035291523E-2</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7486,372 +7481,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.54641865162865078</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>9.5025671239794635E-2</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0.21387088628903292</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>8.0801279353589772E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>3.2820226152532532E-3</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>7.5751199393990403E-3</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.12574752035251038</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7863,216 +7858,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>4.8601561460320276E-2</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>6.8278862344618316E-2</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.93462635482030809</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>0.61030216311758267</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.73029092983456934</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>1.3794293409645653</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.2920410783055199</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8088,350 +8083,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.91929867364592111</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.93300269529386748</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>1.4325259515570934</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>7.5684380032206122E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>6.4256757610072962E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>3.0245909647313038E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>1.4096145726521504E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>2.5999582931266443E-2</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>7.4914047891911457E-3</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>9.2024360440050492E-3</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9710,7 +9705,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9728,7 +9723,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9746,25 +9741,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>166316</v>
       </c>
@@ -9772,12 +9767,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>165790</v>
       </c>
@@ -9785,28 +9780,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>526</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9819,7 +9814,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>84515.700000000012</v>
@@ -9828,16 +9823,16 @@
         <f>1-D6/D3</f>
         <v>0.49183662425743757</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>6.9874648247633662</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9845,7 +9840,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>10.342259145007587</v>
@@ -9855,287 +9850,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>6.9866973650550017</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>45574</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>41016.6</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>843</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>674.40000000000009</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>20</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>8192</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>4915.2</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>13</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>6</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>20</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>6401</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>3200.5</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10146,21 +10141,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>9403</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>5641.8</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10173,45 +10168,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>3</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10219,17 +10214,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10239,19 +10234,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.85339240599026034</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>46614</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.8404673470123688</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10261,17 +10256,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.5</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>3</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>5.4091089394540409E-5</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10280,7 +10275,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10290,17 +10285,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.55949759554543144</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>8842.2999999999993</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.15942987991778154</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10313,7 +10308,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10323,17 +10318,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>2.7</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>4.8681980455086372E-5</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10360,12 +10355,12 @@
         <f>SUM(E24:E27)</f>
         <v>55462</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>7818</v>
       </c>
@@ -10375,171 +10370,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>832</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>1241</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>744.6</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>15</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>69365</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>34682.5</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>13047</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>5218.8</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>847</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>23342</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>2334.2000000000003</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10547,25 +10542,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>1641</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.3</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>492.29999999999995</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10573,26 +10568,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.2</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10600,113 +10595,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>1263</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>126.30000000000001</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>10</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10714,17 +10709,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10734,16 +10729,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>744.6</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10753,16 +10748,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.39937496454034838</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>42235.5</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10772,14 +10767,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.21301652892561981</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>618.59999999999991</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10792,7 +10787,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10802,14 +10797,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.9</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>9</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10822,13 +10817,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>109909</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.39676186663512547</v>
       </c>
@@ -10836,12 +10831,12 @@
         <f>SUM(E30:E42)</f>
         <v>43607.700000000004</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>6210</v>
       </c>
@@ -10852,63 +10847,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>180344</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.54933737745641664</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>99069.700000000012</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>14028</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>526</v>
       </c>
@@ -10916,45 +10911,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>526</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10962,61 +10957,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11030,35 +11025,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>37772.1</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>45574</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>41016.6</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11072,29 +11067,29 @@
         <f>E61+E62</f>
         <v>78788.7</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>867</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11108,9 +11103,9 @@
         <f>E63-E64</f>
         <v>77921.7</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11118,28 +11113,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11153,29 +11148,29 @@
         <f>E49-E63</f>
         <v>20281.000000000015</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>13161</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11189,29 +11184,29 @@
         <f>E68-E69</f>
         <v>7120.0000000000146</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11221,66 +11216,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>8765</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>8765</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>10518</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>5344</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>5344</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.60969766115231028</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>6412.7999999999993</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.60969766115231028</v>
       </c>
@@ -11288,50 +11283,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>3421</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3421</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>4105.2000000000007</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1084</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>1084</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.12367370222475756</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>1300.8</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.12367370222475756</v>
       </c>
@@ -11339,60 +11334,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>2337</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>2337</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.26662863662293212</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>2804.4000000000005</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.26662863662293218</v>
       </c>
@@ -11400,61 +11395,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>910</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0.1038220193953223</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>175.3</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0.02</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>210.36</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0.02</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>94</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>94</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>112.80000000000001</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>1.0724472333143184E-2</v>
       </c>
@@ -11462,59 +11457,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>91</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>91</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>1.038220193953223E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>109.2</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>1.038220193953223E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1242</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.1416999429549344</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1976.7</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.22552196235025671</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>2372.0400000000004</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.22552196235025673</v>
       </c>
@@ -11522,184 +11517,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.20500000000000002</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>987.38999999999987</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.11265145464917284</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1571.4765</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.17928996006845407</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1885.7718000000002</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.1792899600684541</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.12082776640540205</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.19230293546985366</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.23076352256382443</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5510624699024653E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>1.5530561234627512E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4685871048761701E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>2.4717600960135432E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9623045258514048E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>2.9661121152162521E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>4.8002211516016979</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>3.0160746042845692</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>2.5133955035704743</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4454428754813853E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4454428754813853E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4454428754813853E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>7.4550128534704357E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11707,55 +11702,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5833390456003484</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>3.5838938794048603</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4046020904269296</v>
+        <v>4.4054165708617878</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.69986361090943</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>13.705965812491621</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.69986361090943</v>
+        <v>13.705965812491621</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11765,123 +11760,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17895.319475086268</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>17898.62860206046</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7815528081584711</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>1.7818286586180314</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1898656876064839</v>
-      </c>
-      <c r="I97" s="122">
+        <v>2.190270628330051</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9890393157248574</v>
+        <v>2.9895920362638981</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>-526</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>-6.4367073931517929E-2</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>77921.7</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>8.1050438232968176</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>9.5353456744668446</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>95291.019475086272</v>
-      </c>
-      <c r="D100" s="109">
+        <v>95294.328602060457</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1303063844078718</v>
-      </c>
-      <c r="E100" s="109">
+        <v>9.1305957206607005</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8222295575237712</v>
-      </c>
-      <c r="F100" s="109">
+        <v>9.822505407983332</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.741536922832791</v>
-      </c>
-      <c r="H100" s="109">
+        <v>10.741877318424354</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.660844288141812</v>
-      </c>
-      <c r="I100" s="109">
+        <v>11.661249228865378</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.460017916260185</v>
+        <v>12.460570636799225</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11891,58 +11886,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55660.745522320278</v>
-      </c>
-      <c r="D103" s="109">
+        <v>55685.537965445168</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7895654444882227</v>
-      </c>
-      <c r="E103" s="122">
+        <v>5.7921442362498743</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8112534641037916</v>
-      </c>
-      <c r="F103" s="109">
+        <v>6.8142873367645578</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.8112534641037916</v>
-      </c>
-      <c r="H103" s="122">
+        <v>6.8142873367645578</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8112534641037916</v>
-      </c>
-      <c r="I103" s="109">
+        <v>6.8142873367645578</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2969648818169297</v>
+        <v>9.3011059415692472</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11952,58 +11947,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67963.413085117456</v>
-      </c>
-      <c r="D106" s="109">
+        <v>67976.936415097822</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>7.4599359144480477</v>
-      </c>
-      <c r="E106" s="122">
+        <v>7.4613699784552878</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>8.316741510813781</v>
-      </c>
-      <c r="F106" s="109">
+        <v>8.3183963723739449</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7763951934682911</v>
-      </c>
-      <c r="H106" s="122">
+        <v>8.7780823275944559</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>9.2360488761228012</v>
-      </c>
-      <c r="I106" s="122">
+        <v>9.2377682828149688</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.878491399038557</v>
+        <v>10.880838289184236</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12012,15 +12007,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5B6510-CB1E-40C0-AFF6-505D87E4733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07FAB7E-5A5B-4E0E-8D0C-D364418CC6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.20500000000000002</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3418,7 +3435,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.5226977950713356E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3902,7 +3919,7 @@
         <v>231</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3912,11 +3929,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3930,10 +3947,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4155,8 +4172,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4169,8 +4189,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4213,60 +4233,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>63577.225902080005</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>63005.194306559999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4289,11 +4309,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4434,7 +4454,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>1.4096145726521505E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4446,20 +4466,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.91929867364592111</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.26662863662293212</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>4.8601561460320276E-2</v>
       </c>
@@ -4468,26 +4488,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.26662863662293212</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.0877857530611015</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38226764654080186</v>
+        <v>0.37882822041511338</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
@@ -4496,7 +4516,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.714167272031538</v>
+        <v>33.410826435393716</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4528,7 +4548,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.5226977950713356E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4547,10 +4567,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4558,22 +4578,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4613699784552878</v>
+        <v>7.4715262798515045</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>12.512964032561872</v>
+        <v>12.532078104137241</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7780823275944559</v>
-      </c>
-      <c r="G29" s="285">
+        <v>8.7900309174723574</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.880838289184236</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>10.897459220988907</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5604,7 +5624,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7845,7 +7865,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9772,7 +9792,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>165790</v>
       </c>
@@ -10819,7 +10839,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>109909</v>
       </c>
@@ -10836,7 +10856,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>6210</v>
       </c>
@@ -10945,11 +10965,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10960,11 +10980,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10976,11 +10996,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11194,19 +11214,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11216,18 +11236,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11594,17 +11614,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5530561234627512E-2</v>
+        <v>1.5671565033126077E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4717600960135432E-2</v>
+        <v>2.4942014976634716E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9661121152162521E-2</v>
+        <v>2.9930417971961665E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11645,17 +11665,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.5226977950713356E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.5226977950713356E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4550128534704357E-2</v>
+        <v>7.5226977950713356E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11686,15 +11706,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11715,14 +11735,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5838938794048603</v>
+        <v>3.5878199775358781</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4054165708617878</v>
+        <v>4.411180532286898</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11743,14 +11763,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.705965812491621</v>
+        <v>13.74918654697637</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.705965812491621</v>
+        <v>13.74918654697637</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11793,21 +11813,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17898.62860206046</v>
+        <v>17922.046819876003</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7818286586180314</v>
+        <v>1.7837806232692717</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.190270628330051</v>
+        <v>2.1931363358537728</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.9895920362638981</v>
+        <v>2.993503560383505</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11856,27 +11876,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>95294.328602060457</v>
+        <v>95317.746819876003</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1305957206607005</v>
+        <v>9.1326432313350612</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.822505407983332</v>
+        <v>9.824457372634571</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.741877318424354</v>
+        <v>10.744286154511837</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.661249228865378</v>
+        <v>11.664114936389101</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.460570636799225</v>
+        <v>12.464482160918831</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11917,27 +11937,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55685.537965445168</v>
+        <v>55861.138129926192</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7921442362498743</v>
+        <v>5.810409328367947</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8142873367645578</v>
+        <v>6.8357756804328789</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.8142873367645578</v>
+        <v>6.8357756804328789</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8142873367645578</v>
+        <v>6.8357756804328789</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3011059415692472</v>
+        <v>9.3304362810589829</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11978,27 +11998,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67976.936415097822</v>
+        <v>68072.712107722968</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>7.4613699784552878</v>
+        <v>7.4715262798515045</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>8.3183963723739449</v>
+        <v>8.3301165265337254</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7780823275944559</v>
+        <v>8.7900309174723574</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>9.2377682828149688</v>
+        <v>9.2499453084109895</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.880838289184236</v>
+        <v>10.897459220988907</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07FAB7E-5A5B-4E0E-8D0C-D364418CC6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE42DB1C-E5D8-4D9A-8FDD-4EBA8794009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.5226977950713356E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.71</v>
+        <v>7.54</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>63005.194306559999</v>
+        <v>61615.974717440004</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.37882822041511338</v>
+        <v>0.37047532839558428</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.410826435393716</v>
+        <v>32.674141546416166</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.5226977950713356E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4578,20 +4578,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4715262798515045</v>
+        <v>7.4970823173056935</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>12.532078104137241</v>
+        <v>12.580172838776344</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.7900309174723574</v>
+        <v>8.8200968438890524</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.897459220988907</v>
+        <v>10.939280729370735</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9743,7 +9743,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11614,17 +11614,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5671565033126077E-2</v>
+        <v>1.6024902706286745E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4942014976634716E-2</v>
+        <v>2.5504368099450087E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9930417971961665E-2</v>
+        <v>3.060524171934011E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11665,17 +11665,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5226977950713356E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5226977950713356E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5226977950713356E-2</v>
+        <v>7.6923076923076913E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11735,14 +11735,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5878199775358781</v>
+        <v>3.5976733983342153</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.411180532286898</v>
+        <v>4.4256507951199673</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11763,14 +11763,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.74918654697637</v>
+        <v>13.857971339554796</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.74918654697637</v>
+        <v>13.857971339554796</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11813,21 +11813,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17922.046819876003</v>
+        <v>17980.837596198126</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7837806232692717</v>
+        <v>1.7886795148533092</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.1931363358537728</v>
+        <v>2.2003306138880263</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.993503560383505</v>
+        <v>3.0033233315294439</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11854,7 +11854,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>77921.7</v>
       </c>
       <c r="D99" s="209"/>
@@ -11876,27 +11876,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>95317.746819876003</v>
+        <v>95376.537596198119</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.1326432313350612</v>
+        <v>9.137782828422834</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.824457372634571</v>
+        <v>9.8293562642186085</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.744286154511837</v>
+        <v>10.750332739320982</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.664114936389101</v>
+        <v>11.671309214423353</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.464482160918831</v>
+        <v>12.474301932064771</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11937,27 +11937,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55861.138129926192</v>
+        <v>56303.116446526685</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.810409328367947</v>
+        <v>5.856381806188554</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8357756804328789</v>
+        <v>6.8898609484571223</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.8357756804328789</v>
+        <v>6.8898609484571223</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8357756804328789</v>
+        <v>6.8898609484571223</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3304362810589829</v>
+        <v>9.4042595266766984</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11998,27 +11998,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68072.712107722968</v>
+        <v>68313.71784294532</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>7.4715262798515045</v>
+        <v>7.4970823173056935</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>8.3301165265337254</v>
+        <v>8.359608606337865</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.7900309174723574</v>
+        <v>8.8200968438890524</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>9.2499453084109895</v>
+        <v>9.280585081440238</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.897459220988907</v>
+        <v>10.939280729370735</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE42DB1C-E5D8-4D9A-8FDD-4EBA8794009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD02E97-B5B7-F343-B29B-BB0762684649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="282">
   <si>
     <t>Company Info:</t>
   </si>
@@ -516,507 +516,521 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>ST Inventory</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Total Debt + PS + Options</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (Total Debt + PS + Options)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Non-intreset-bearing Debt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Non-operating Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Operating Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Drivers</t>
+  </si>
+  <si>
+    <t>Internal Drivers</t>
+  </si>
+  <si>
+    <t>Adj. Pre-tax ROA</t>
+  </si>
+  <si>
+    <t>Operating ST Financial Assets</t>
+  </si>
+  <si>
+    <t>Operating LT Financial Assets</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Operating Equity Valuation</t>
+  </si>
+  <si>
+    <t>Dividend method</t>
+  </si>
+  <si>
+    <t>Last Revision:</t>
+  </si>
+  <si>
+    <t>After-tax Profit =</t>
+  </si>
+  <si>
+    <t>Selecting the Valuation method</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>- Non-controling Interests</t>
+  </si>
+  <si>
+    <t>Normalized Payout Ratio</t>
+  </si>
+  <si>
+    <t>US Riskfree</t>
+  </si>
+  <si>
+    <t>CN Riskfree</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
+  </si>
+  <si>
+    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
+  </si>
+  <si>
+    <t>US BBB Bond yield</t>
+  </si>
+  <si>
+    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/government-bond-yield</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/DGS10</t>
+  </si>
+  <si>
+    <t>Price Indicators</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CN Onshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>CN Offshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>PB Ratio</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Market Yields</t>
+  </si>
+  <si>
+    <t>Watchlist &amp; Comp_Group:</t>
+  </si>
+  <si>
+    <t>Normalized D/P</t>
+  </si>
+  <si>
+    <t>Symbol:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Valued @</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg of E and D method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR Calculator</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Value (PV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Value (FV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Years</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend per share</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Return</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watchlist</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comp_Group:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Shares:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting Currency:</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most Recent Quarter</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Dividend Yield</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earnings Power Checklist</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Consumer monopoly?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Conservatively financed?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Past</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Can earnings be sustained?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Monopoly Test</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you had access to billions of dollars and your pick of the top fifty managers in the country, could you start a business and successfully compete with the business in question?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. No big MCX-D&amp;A required?</t>
+  </si>
+  <si>
+    <t>EBIT =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(OPEX+R&amp;D)/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPX/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CAPX-D&amp;A)/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Upward earnings trend?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Stable margin and ROE?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Pre-tax Non-controling Interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Growth</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>- (CAPX - D&amp;A)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- (OPEX + R&amp;D) =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valuation method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Years of Projection</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discount Rate (US)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discount Rate (CN)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice of Discount Rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>+ Net Non-Operating Valuation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Total Debt + PS + Options</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (Total Debt + PS + Options)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Non-intreset-bearing Debt</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Non-operating Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Operating Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>External Drivers</t>
-  </si>
-  <si>
-    <t>Internal Drivers</t>
-  </si>
-  <si>
-    <t>Adj. Pre-tax ROA</t>
-  </si>
-  <si>
-    <t>Operating ST Financial Assets</t>
-  </si>
-  <si>
-    <t>Operating LT Financial Assets</t>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>Operating Equity Valuation</t>
-  </si>
-  <si>
-    <t>Dividend method</t>
-  </si>
-  <si>
-    <t>Last Revision:</t>
-  </si>
-  <si>
-    <t>After-tax Profit =</t>
-  </si>
-  <si>
-    <t>Selecting the Valuation method</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Value Range</t>
-  </si>
-  <si>
-    <t>- Non-controling Interests</t>
-  </si>
-  <si>
-    <t>Normalized Payout Ratio</t>
-  </si>
-  <si>
-    <t>US Riskfree</t>
-  </si>
-  <si>
-    <t>CN Riskfree</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
-  </si>
-  <si>
-    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
-  </si>
-  <si>
-    <t>US BBB Bond yield</t>
-  </si>
-  <si>
-    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/government-bond-yield</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>Price Indicators</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CN Onshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>CN Offshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>PB Ratio</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Market Yields</t>
-  </si>
-  <si>
-    <t>Watchlist &amp; Comp_Group:</t>
-  </si>
-  <si>
-    <t>Normalized D/P</t>
-  </si>
-  <si>
-    <t>Symbol:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Valued @</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg of E and D method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg Valuation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR Calculator</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inputs =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Value (PV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Value (FV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t># of Years</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Case</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pessimistic Case</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend per share</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>E/P Initial Rate of Retrun</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>E/P Future Value is</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>D/P Future Value is</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target Return</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inputs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watchlist</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comp_Group:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Shares:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporting Currency:</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Most Recent Quarter</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>D/P Dividend Yield</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earnings Power Checklist</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Present</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Consumer monopoly?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Conservatively financed?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Past</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Can earnings be sustained?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumer Monopoly Test</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you had access to billions of dollars and your pick of the top fifty managers in the country, could you start a business and successfully compete with the business in question?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. No big MCX-D&amp;A required?</t>
-  </si>
-  <si>
-    <t>EBIT =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>(OPEX+R&amp;D)/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPX/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CAPX-D&amp;A)/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Upward earnings trend?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Stable margin and ROE?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Pre-tax Non-controling Interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT Growth</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>- (CAPX - D&amp;A)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>- (OPEX + R&amp;D) =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valuation method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Years of Projection</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discount Rate (US)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discount Rate (CN)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choice of Discount Rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Interest Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Case Valuation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized PE Ratio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT AR or Prepayments</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prepayments or Contract Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔWC/Δsales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profibility Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leverage Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_Equity / Total Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT ROE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-tax ROE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sales/Total_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST_AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST_Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT Margin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized ΔWC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE &amp; Cost Structure</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceHolder_1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset Turnover Ratio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceHolder_3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceHolder_4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contingent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contin. Liabilities / Total Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leverage Ratio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083.HK</t>
-  </si>
-  <si>
-    <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>C0005</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>HKD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riskfree Rate</t>
+  </si>
+  <si>
+    <t>Net Nonop Assets FV</t>
+  </si>
+  <si>
+    <t>Net Nonop Assets PV</t>
+  </si>
+  <si>
+    <t>Nonop Assets per share</t>
+  </si>
+  <si>
+    <t>Nonop Assets Valuation</t>
   </si>
 </sst>
 </file>
@@ -1024,19 +1038,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1689,10 +1703,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1745,8 +1759,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1769,14 +1783,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1806,7 +1820,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1907,7 +1921,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1934,7 +1948,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,10 +2001,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2026,7 +2040,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2053,16 +2067,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2083,7 +2097,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,10 +2119,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,10 +2131,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2137,7 +2151,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2149,13 +2163,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2189,7 +2203,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,19 +2247,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2270,7 +2284,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,10 +2296,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2316,19 +2330,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2347,7 +2361,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2365,16 +2379,18 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,7 +2399,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2397,7 +2413,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2410,14 +2426,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -2826,48 +2842,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B5" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="185" t="s">
+      <c r="C5" s="188" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="188" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="186">
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="138" t="s">
         <v>4</v>
       </c>
@@ -2875,40 +2891,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="188" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="262"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="138" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" s="189" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="138" t="s">
-        <v>203</v>
       </c>
       <c r="C10" s="190">
         <v>8171879936</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="213" t="s">
         <v>10</v>
       </c>
@@ -2916,7 +2932,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="213" t="s">
         <v>11</v>
       </c>
@@ -2924,23 +2940,23 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="217" t="s">
         <v>93</v>
       </c>
@@ -2949,64 +2965,64 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="109" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="235" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="237" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="235" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="237" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="236" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="237" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="219" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="237" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="221" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="238" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="114" t="s">
         <v>128</v>
       </c>
@@ -3055,7 +3071,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
@@ -3075,7 +3091,7 @@
       <c r="L25" s="147"/>
       <c r="M25" s="147"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="96" t="s">
         <v>102</v>
       </c>
@@ -3095,7 +3111,7 @@
       <c r="L26" s="148"/>
       <c r="M26" s="148"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="96" t="s">
         <v>100</v>
       </c>
@@ -3115,7 +3131,7 @@
       <c r="L27" s="148"/>
       <c r="M27" s="148"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
@@ -3131,9 +3147,9 @@
       <c r="L28" s="148"/>
       <c r="M28" s="148"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" s="148">
         <v>94</v>
@@ -3151,7 +3167,7 @@
       <c r="L29" s="148"/>
       <c r="M29" s="148"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="98" t="s">
         <v>107</v>
       </c>
@@ -3171,7 +3187,7 @@
       <c r="L30" s="148"/>
       <c r="M30" s="148"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="96" t="s">
         <v>106</v>
       </c>
@@ -3191,7 +3207,7 @@
       <c r="L31" s="148"/>
       <c r="M31" s="148"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
@@ -3211,7 +3227,7 @@
       <c r="L32" s="148"/>
       <c r="M32" s="148"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
@@ -3231,9 +3247,9 @@
       <c r="L33" s="148"/>
       <c r="M33" s="148"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="212"/>
       <c r="D34" s="148">
@@ -3249,7 +3265,7 @@
       <c r="L34" s="148"/>
       <c r="M34" s="148"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="93" t="s">
         <v>112</v>
       </c>
@@ -3267,9 +3283,9 @@
       <c r="L35" s="148"/>
       <c r="M35" s="148"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="212"/>
       <c r="D36" s="148">
@@ -3285,9 +3301,9 @@
       <c r="L36" s="148"/>
       <c r="M36" s="148"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="148">
         <v>14028</v>
@@ -3305,9 +3321,9 @@
       <c r="L37" s="148"/>
       <c r="M37" s="148"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="148"/>
       <c r="D38" s="148">
@@ -3323,7 +3339,7 @@
       <c r="L38" s="148"/>
       <c r="M38" s="148"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
@@ -3339,7 +3355,7 @@
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
@@ -3355,7 +3371,7 @@
       <c r="L40" s="148"/>
       <c r="M40" s="148"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="93" t="s">
         <v>132</v>
       </c>
@@ -3375,7 +3391,7 @@
       <c r="L41" s="148"/>
       <c r="M41" s="148"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
@@ -3395,7 +3411,7 @@
       <c r="L42" s="148"/>
       <c r="M42" s="148"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="93" t="s">
         <v>131</v>
       </c>
@@ -3411,9 +3427,9 @@
       <c r="L43" s="148"/>
       <c r="M43" s="148"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C44" s="245">
         <v>0.57999999999999996</v>
@@ -3429,9 +3445,9 @@
       <c r="L44" s="245"/>
       <c r="M44" s="245"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3478,7 +3494,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="str">
         <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
         <v>Balance Sheet</v>
@@ -3487,13 +3503,13 @@
         <v>30</v>
       </c>
       <c r="D47" s="191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" s="110" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3505,7 +3521,7 @@
       </c>
       <c r="E48" s="111"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>130</v>
       </c>
@@ -3517,7 +3533,7 @@
       </c>
       <c r="E49" s="111"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>112</v>
       </c>
@@ -3530,7 +3546,7 @@
       </c>
       <c r="E50" s="111"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>38</v>
       </c>
@@ -3542,7 +3558,7 @@
       </c>
       <c r="E51" s="111"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
@@ -3554,9 +3570,9 @@
       </c>
       <c r="E52" s="111"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3567,9 +3583,9 @@
       </c>
       <c r="E53" s="111"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3579,7 +3595,7 @@
       </c>
       <c r="E54" s="111"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>43</v>
       </c>
@@ -3592,7 +3608,7 @@
       </c>
       <c r="E55" s="111"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>44</v>
       </c>
@@ -3607,7 +3623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3621,7 +3637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
@@ -3634,7 +3650,7 @@
       </c>
       <c r="E58" s="111"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
@@ -3647,7 +3663,7 @@
       </c>
       <c r="E59" s="111"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>57</v>
       </c>
@@ -3660,7 +3676,7 @@
       </c>
       <c r="E60" s="111"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
@@ -3673,7 +3689,7 @@
       </c>
       <c r="E61" s="111"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
@@ -3686,9 +3702,9 @@
       </c>
       <c r="E62" s="111"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3699,9 +3715,9 @@
       </c>
       <c r="E63" s="111"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59">
         <v>13047</v>
@@ -3711,7 +3727,7 @@
       </c>
       <c r="E64" s="111"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
@@ -3725,7 +3741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
@@ -3739,7 +3755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>45</v>
       </c>
@@ -3753,7 +3769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>114</v>
       </c>
@@ -3766,7 +3782,7 @@
       </c>
       <c r="E68" s="111"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
@@ -3779,7 +3795,7 @@
       </c>
       <c r="E69" s="111"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
@@ -3791,7 +3807,7 @@
       </c>
       <c r="E70" s="111"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
@@ -3804,7 +3820,7 @@
       </c>
       <c r="E71" s="111"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="241" t="s">
         <v>72</v>
       </c>
@@ -3816,13 +3832,13 @@
       </c>
       <c r="E72" s="244"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
@@ -3830,19 +3846,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="85" t="s">
         <v>39</v>
       </c>
       <c r="C76" s="118"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
@@ -3850,7 +3866,7 @@
         <v>7818</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>58</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>60</v>
       </c>
@@ -3866,91 +3882,91 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="118"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" s="212">
         <v>6210</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C83" s="212">
         <v>165790</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86" s="194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="284">
+      <c r="C89" s="286">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="284"/>
+      <c r="D89" s="286"/>
       <c r="E89" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F89" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="285" t="s">
+      <c r="C90" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="285"/>
+      <c r="D90" s="287"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -3958,7 +3974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>121</v>
       </c>
@@ -3972,11 +3988,11 @@
         <v>8765</v>
       </c>
       <c r="F91" s="246">
-        <f>C91*1.2</f>
-        <v>10518</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <f>C91</f>
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="103" t="s">
         <v>102</v>
       </c>
@@ -3994,12 +4010,12 @@
       </c>
       <c r="F92" s="247">
         <f>F91*D92</f>
-        <v>6412.7999999999993</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4015,12 +4031,12 @@
       </c>
       <c r="F93" s="247">
         <f>F91*D93</f>
-        <v>1300.8</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4033,12 +4049,12 @@
       <c r="E94" s="248"/>
       <c r="F94" s="247">
         <f>F91*D94</f>
-        <v>112.80000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4054,10 +4070,10 @@
       </c>
       <c r="F95" s="247">
         <f>F91*D95</f>
-        <v>109.2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>106</v>
       </c>
@@ -4072,12 +4088,12 @@
       <c r="E96" s="248"/>
       <c r="F96" s="247">
         <f>F91*2%</f>
-        <v>210.36</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+        <v>175.3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4093,9 +4109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="232">
         <f>C44</f>
@@ -4189,23 +4205,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -4214,7 +4230,7 @@
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4229,15 +4245,15 @@
       <c r="G2" s="85"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="290" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="292" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4246,51 +4262,51 @@
         <v>7.54</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="292" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="294" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="293"/>
+      <c r="D4" s="295"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="296">
+      <c r="G4" s="298">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="296"/>
+      <c r="H4" s="298"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="294">
+        <v>154</v>
+      </c>
+      <c r="C5" s="296">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="295"/>
+      <c r="D5" s="297"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="288">
+      <c r="G5" s="290">
         <f>G3*G4/1000000</f>
         <v>61615.974717440004</v>
       </c>
-      <c r="H5" s="288"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
@@ -4309,16 +4325,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="289" t="str">
+      <c r="G6" s="291" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="289"/>
+      <c r="H6" s="291"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
@@ -4340,43 +4356,43 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
@@ -4386,32 +4402,32 @@
       </c>
       <c r="F12" s="109"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="169">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="170">
         <v>0.16</v>
@@ -4421,22 +4437,22 @@
         <v>HK</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="173"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="133" t="s">
         <v>48</v>
@@ -4444,29 +4460,29 @@
       <c r="D19" s="86"/>
       <c r="E19" s="86"/>
       <c r="F19" s="140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="270" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="271">
         <f>C21*C22*C23</f>
         <v>1.4096145726521505E-2</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B21" s="272" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="283">
         <f>Data!C13</f>
@@ -4475,155 +4491,155 @@
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="273" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="274">
         <f>Data!C48</f>
         <v>4.8601561460320276E-2</v>
       </c>
       <c r="F22" s="140" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="275" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="282">
         <f>1/Data!C53</f>
         <v>1.0877857530611015</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>0.37047532839558428</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="280" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>1.0724472333143184E-2</v>
       </c>
       <c r="F24" s="138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.674141546416166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>39.208969855699401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0.02</v>
       </c>
       <c r="F25" s="138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>2.5133955035704743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.0160746042845692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>3.0382201939532231E-2</v>
       </c>
       <c r="F26" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>7.6923076923076913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="286" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="286"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+      <c r="G28" s="288" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="288"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.4970823173056935</v>
+        <v>7.0796019373400467</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>12.580172838776344</v>
+        <v>10.770839242287673</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.8200968438890524</v>
-      </c>
-      <c r="G29" s="287">
+        <v>8.3289434556941728</v>
+      </c>
+      <c r="G29" s="289">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.939280729370735</v>
-      </c>
-      <c r="H29" s="287"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.3659471672066736</v>
+      </c>
+      <c r="H29" s="289"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="219"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -4631,962 +4647,962 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="193" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="219"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="193" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C38" s="219"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="221" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -5654,13 +5670,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -5668,7 +5684,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -5676,7 +5692,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -5684,16 +5700,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
-      </c>
-      <c r="H2" s="145" t="s">
-        <v>190</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="86"/>
@@ -5701,7 +5717,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="102" t="s">
         <v>10</v>
@@ -5711,7 +5727,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="84" t="str">
         <f>H14</f>
@@ -5730,7 +5746,7 @@
       <c r="L3" s="86"/>
       <c r="M3" s="86"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="102" t="s">
         <v>11</v>
@@ -5744,7 +5760,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5752,7 +5768,7 @@
       </c>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="114" t="s">
         <v>128</v>
@@ -5802,7 +5818,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="93" t="s">
         <v>12</v>
@@ -5853,7 +5869,7 @@
       </c>
       <c r="N6" s="86"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="95" t="s">
         <v>13</v>
@@ -5904,7 +5920,7 @@
       </c>
       <c r="N7" s="86"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="96" t="s">
         <v>102</v>
@@ -5955,7 +5971,7 @@
       </c>
       <c r="N8" s="86"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="97" t="s">
         <v>99</v>
@@ -6006,7 +6022,7 @@
       </c>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="96" t="s">
         <v>100</v>
@@ -6057,7 +6073,7 @@
       </c>
       <c r="N10" s="86"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="96" t="s">
         <v>103</v>
@@ -6108,10 +6124,10 @@
       </c>
       <c r="N11" s="86"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6159,10 +6175,10 @@
       </c>
       <c r="N12" s="86"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6210,10 +6226,10 @@
       </c>
       <c r="N13" s="86"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="223" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6261,10 +6277,10 @@
       </c>
       <c r="N14" s="86"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6312,7 +6328,7 @@
       </c>
       <c r="N15" s="86"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="96" t="s">
         <v>106</v>
@@ -6363,10 +6379,10 @@
       </c>
       <c r="N16" s="86"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6414,7 +6430,7 @@
       </c>
       <c r="N17" s="86"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="93" t="s">
         <v>95</v>
@@ -6465,7 +6481,7 @@
       </c>
       <c r="N18" s="86"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="96" t="s">
         <v>101</v>
@@ -6516,10 +6532,10 @@
       </c>
       <c r="N19" s="86"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6567,7 +6583,7 @@
       </c>
       <c r="N20" s="86"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="96" t="s">
         <v>104</v>
@@ -6618,7 +6634,7 @@
       </c>
       <c r="N21" s="86"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="97" t="s">
         <v>108</v>
@@ -6669,7 +6685,7 @@
       </c>
       <c r="N22" s="86"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="99" t="s">
         <v>109</v>
@@ -6720,7 +6736,7 @@
       </c>
       <c r="N23" s="86"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
         <v>110</v>
@@ -6771,7 +6787,7 @@
       </c>
       <c r="N24" s="86"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="229" t="s">
         <v>123</v>
@@ -6822,7 +6838,7 @@
       </c>
       <c r="N25" s="86"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="113" t="s">
         <v>129</v>
@@ -6873,7 +6889,7 @@
       </c>
       <c r="N26" s="86"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="93" t="s">
         <v>14</v>
@@ -6924,7 +6940,7 @@
       </c>
       <c r="N27" s="86"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="93" t="s">
         <v>112</v>
@@ -6975,10 +6991,10 @@
       </c>
       <c r="N28" s="86"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7026,10 +7042,10 @@
       </c>
       <c r="N29" s="86"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
@@ -7077,7 +7093,7 @@
       </c>
       <c r="N30" s="86"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="93" t="s">
         <v>17</v>
@@ -7128,7 +7144,7 @@
       </c>
       <c r="N31" s="86"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="93" t="s">
         <v>18</v>
@@ -7179,7 +7195,7 @@
       </c>
       <c r="N32" s="86"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="93" t="s">
         <v>19</v>
@@ -7230,7 +7246,7 @@
       </c>
       <c r="N33" s="86"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="93" t="s">
         <v>132</v>
@@ -7281,7 +7297,7 @@
       </c>
       <c r="N34" s="86"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="93" t="s">
         <v>133</v>
@@ -7332,7 +7348,7 @@
       </c>
       <c r="N35" s="86"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="93" t="s">
         <v>131</v>
@@ -7383,7 +7399,7 @@
       </c>
       <c r="N36" s="86"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="93" t="s">
         <v>135</v>
@@ -7434,10 +7450,10 @@
       </c>
       <c r="N37" s="86"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
@@ -7485,10 +7501,10 @@
       </c>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7503,7 +7519,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="86"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
         <v>94</v>
@@ -7554,10 +7570,10 @@
       </c>
       <c r="N40" s="86"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7605,7 +7621,7 @@
       </c>
       <c r="N41" s="86"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="93" t="s">
         <v>105</v>
@@ -7656,7 +7672,7 @@
       </c>
       <c r="N42" s="86"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="93" t="s">
         <v>117</v>
@@ -7707,7 +7723,7 @@
       </c>
       <c r="N43" s="86"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="93" t="s">
         <v>124</v>
@@ -7758,10 +7774,10 @@
       </c>
       <c r="N44" s="86"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -7809,7 +7825,7 @@
       </c>
       <c r="N45" s="86"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="93" t="s">
         <v>119</v>
@@ -7860,13 +7876,13 @@
       </c>
       <c r="N46" s="86"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="276" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7880,10 +7896,10 @@
       <c r="M47" s="36"/>
       <c r="N47" s="86"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
@@ -7931,10 +7947,10 @@
       </c>
       <c r="N48" s="86"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
@@ -7982,10 +7998,10 @@
       </c>
       <c r="N49" s="86"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
@@ -8033,10 +8049,10 @@
       </c>
       <c r="N50" s="86"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
@@ -8084,10 +8100,10 @@
       </c>
       <c r="N51" s="86"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8101,10 +8117,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
@@ -8151,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="93" t="s">
         <v>116</v>
@@ -8201,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="93" t="s">
         <v>118</v>
@@ -8251,10 +8267,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C56" s="151">
         <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
@@ -8301,10 +8317,10 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
       <c r="B57" s="101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
@@ -8351,10 +8367,10 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="266" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
@@ -8401,10 +8417,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="266" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
@@ -8451,1253 +8467,1253 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
@@ -9742,11 +9758,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -9754,11 +9770,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>20</v>
@@ -9774,7 +9790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +9814,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -9814,7 +9830,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
@@ -9829,7 +9845,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="str">
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
@@ -9855,7 +9871,7 @@
       <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="str">
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
@@ -9879,13 +9895,13 @@
       <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>28</v>
@@ -9905,7 +9921,7 @@
       <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
@@ -9913,7 +9929,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9930,7 +9946,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -9958,7 +9974,7 @@
       <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
@@ -9986,7 +10002,7 @@
       <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
@@ -10014,7 +10030,7 @@
       <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -10042,7 +10058,7 @@
       <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
@@ -10069,9 +10085,9 @@
       </c>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10091,7 +10107,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="86"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
@@ -10113,7 +10129,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="86"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
@@ -10134,7 +10150,7 @@
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -10159,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>115</v>
       </c>
@@ -10186,7 +10202,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
@@ -10207,7 +10223,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
@@ -10233,7 +10249,7 @@
         <v>7798</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="86"/>
       <c r="D23" s="86"/>
       <c r="E23" s="86"/>
@@ -10242,7 +10258,7 @@
       </c>
       <c r="G23" s="86"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>49</v>
       </c>
@@ -10264,7 +10280,7 @@
       </c>
       <c r="G24" s="86"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>51</v>
       </c>
@@ -10293,7 +10309,7 @@
         <v>7.0941417242261444</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>53</v>
       </c>
@@ -10326,7 +10342,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>55</v>
       </c>
@@ -10359,7 +10375,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
@@ -10401,7 +10417,7 @@
       <c r="I29" s="86"/>
       <c r="J29" s="86"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
@@ -10427,7 +10443,7 @@
       </c>
       <c r="J30" s="86"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10454,7 +10470,7 @@
       </c>
       <c r="J31" s="86"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
@@ -10481,9 +10497,9 @@
       </c>
       <c r="J32" s="86"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10511,7 +10527,7 @@
       </c>
       <c r="J33" s="86"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
@@ -10538,7 +10554,7 @@
       </c>
       <c r="J34" s="86"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
@@ -10564,7 +10580,7 @@
       </c>
       <c r="J35" s="86"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
@@ -10591,7 +10607,7 @@
       <c r="H36" s="86"/>
       <c r="I36" s="86"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
@@ -10618,7 +10634,7 @@
       <c r="H37" s="86"/>
       <c r="I37" s="86"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>114</v>
       </c>
@@ -10639,7 +10655,7 @@
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>69</v>
       </c>
@@ -10660,7 +10676,7 @@
       <c r="H39" s="86"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
@@ -10681,7 +10697,7 @@
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
@@ -10702,7 +10718,7 @@
       <c r="H41" s="86"/>
       <c r="I41" s="86"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -10728,7 +10744,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="86"/>
       <c r="D43" s="86"/>
       <c r="E43" s="86"/>
@@ -10737,7 +10753,7 @@
       <c r="H43" s="86"/>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>73</v>
       </c>
@@ -10756,7 +10772,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="86"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>75</v>
       </c>
@@ -10775,7 +10791,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="86"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>76</v>
       </c>
@@ -10805,7 +10821,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>78</v>
       </c>
@@ -10835,7 +10851,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
@@ -10862,7 +10878,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -10889,20 +10905,20 @@
       </c>
       <c r="J49" s="86"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="86"/>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>84</v>
       </c>
@@ -10919,7 +10935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
@@ -10940,7 +10956,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="86"/>
@@ -10949,9 +10965,9 @@
       <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="123"/>
@@ -10960,53 +10976,53 @@
       <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="297">
+      <c r="D56" s="299">
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="295"/>
+      <c r="E56" s="297"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="296">
+      <c r="D57" s="298">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="295"/>
+      <c r="E57" s="297"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="296">
+      <c r="D58" s="298">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="295"/>
+      <c r="E58" s="297"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
       <c r="E59" s="86"/>
@@ -11015,9 +11031,9 @@
       <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11026,10 +11042,13 @@
       <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="86"/>
+      <c r="H60" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I60" s="10"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>91</v>
       </c>
@@ -11047,10 +11066,16 @@
       </c>
       <c r="F61" s="86"/>
       <c r="G61" s="86"/>
-      <c r="I61" s="86"/>
+      <c r="H61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" s="285">
+        <f>C99*Data!$C$4/Common_Shares</f>
+        <v>9.5353456744668446</v>
+      </c>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
@@ -11068,10 +11093,16 @@
       </c>
       <c r="F62" s="86"/>
       <c r="G62" s="86"/>
-      <c r="I62" s="86"/>
+      <c r="H62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I62" s="72">
+        <f>IF(C92="US",Dashboard!C10,Dashboard!C14)</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>136</v>
       </c>
@@ -11089,12 +11120,18 @@
       </c>
       <c r="F63" s="86"/>
       <c r="G63" s="86"/>
-      <c r="I63" s="86"/>
+      <c r="H63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I63" s="284">
+        <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
+        <v>10.062543110509827</v>
+      </c>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="203"/>
       <c r="D64" s="203"/>
@@ -11104,10 +11141,16 @@
       </c>
       <c r="F64" s="86"/>
       <c r="G64" s="86"/>
-      <c r="I64" s="86"/>
+      <c r="H64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I64" s="284">
+        <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
+        <v>6.6162854347068825</v>
+      </c>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
@@ -11128,7 +11171,7 @@
       <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11138,9 +11181,9 @@
       <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11152,7 +11195,7 @@
       <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>135</v>
       </c>
@@ -11173,9 +11216,9 @@
       <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="203"/>
       <c r="D69" s="203"/>
@@ -11188,7 +11231,7 @@
       <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>138</v>
       </c>
@@ -11209,48 +11252,48 @@
       <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="284">
+      <c r="C72" s="286">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="284"/>
-      <c r="E72" s="298" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="298"/>
-      <c r="H72" s="298" t="s">
+      <c r="D72" s="286"/>
+      <c r="E72" s="300" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="298"/>
+      <c r="F72" s="300"/>
+      <c r="H72" s="300" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="300"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="285" t="s">
+      <c r="C73" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="285"/>
-      <c r="E73" s="299" t="s">
+      <c r="D73" s="287"/>
+      <c r="E73" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="285"/>
-      <c r="H73" s="299" t="s">
+      <c r="F73" s="287"/>
+      <c r="H73" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="285"/>
+      <c r="I73" s="287"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>121</v>
       </c>
@@ -11266,12 +11309,12 @@
       <c r="F74" s="204"/>
       <c r="H74" s="233">
         <f>Inputs!F91</f>
-        <v>10518</v>
+        <v>8765</v>
       </c>
       <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="103" t="s">
         <v>102</v>
       </c>
@@ -11293,7 +11336,7 @@
       </c>
       <c r="H75" s="233">
         <f>Inputs!F92</f>
-        <v>6412.7999999999993</v>
+        <v>5344</v>
       </c>
       <c r="I75" s="157">
         <f>H75/$H$74</f>
@@ -11301,7 +11344,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
@@ -11317,14 +11360,14 @@
       <c r="F76" s="205"/>
       <c r="H76" s="159">
         <f>H74-H75</f>
-        <v>4105.2000000000007</v>
+        <v>3421</v>
       </c>
       <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11344,7 +11387,7 @@
       </c>
       <c r="H77" s="233">
         <f>Inputs!F93</f>
-        <v>1300.8</v>
+        <v>1084</v>
       </c>
       <c r="I77" s="157">
         <f>H77/$H$74</f>
@@ -11352,9 +11395,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11382,9 +11425,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="251" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="252">
         <f>C76-C77-C78</f>
@@ -11405,15 +11448,15 @@
       <c r="G79" s="255"/>
       <c r="H79" s="254">
         <f>H76-H77-H78</f>
-        <v>2804.4000000000005</v>
+        <v>2337</v>
       </c>
       <c r="I79" s="253">
         <f>H79/H74</f>
-        <v>0.26662863662293218</v>
+        <v>0.26662863662293212</v>
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>106</v>
       </c>
@@ -11435,7 +11478,7 @@
       </c>
       <c r="H80" s="233">
         <f>Inputs!F96</f>
-        <v>210.36</v>
+        <v>175.3</v>
       </c>
       <c r="I80" s="157">
         <f>H80/$H$74</f>
@@ -11445,9 +11488,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11467,7 +11510,7 @@
       </c>
       <c r="H81" s="233">
         <f>Inputs!F94</f>
-        <v>112.80000000000001</v>
+        <v>94</v>
       </c>
       <c r="I81" s="157">
         <f>H81/$H$74</f>
@@ -11475,9 +11518,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11497,7 +11540,7 @@
       </c>
       <c r="H82" s="233">
         <f>Inputs!F95</f>
-        <v>109.2</v>
+        <v>91</v>
       </c>
       <c r="I82" s="157">
         <f>H82/$H$74</f>
@@ -11505,7 +11548,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="104" t="s">
         <v>120</v>
       </c>
@@ -11527,15 +11570,15 @@
       </c>
       <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
-        <v>2372.0400000000004</v>
+        <v>1976.7</v>
       </c>
       <c r="I83" s="161">
         <f>H83/$H$74</f>
-        <v>0.22552196235025673</v>
+        <v>0.22552196235025671</v>
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
@@ -11556,9 +11599,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="258" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="252">
         <f>C83*(1-I84)</f>
@@ -11579,17 +11622,17 @@
       <c r="G85" s="255"/>
       <c r="H85" s="259">
         <f>H83*(1-I84)</f>
-        <v>1885.7718000000002</v>
+        <v>1571.4765</v>
       </c>
       <c r="I85" s="253">
         <f>H85/$H$74</f>
-        <v>0.1792899600684541</v>
+        <v>0.17928996006845407</v>
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11603,14 +11646,14 @@
       <c r="F86" s="204"/>
       <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.23076352256382443</v>
+        <v>0.19230293546985366</v>
       </c>
       <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -11624,14 +11667,14 @@
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.060524171934011E-2</v>
+        <v>2.5504368099450087E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
@@ -11655,13 +11698,13 @@
       </c>
       <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>2.5133955035704743</v>
+        <v>3.0160746042845692</v>
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11680,11 +11723,11 @@
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="87"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -11695,29 +11738,29 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="298" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="298"/>
+        <v>147</v>
+      </c>
+      <c r="E92" s="300" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="300"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="298" t="s">
-        <v>191</v>
-      </c>
-      <c r="I92" s="298"/>
+      <c r="H92" s="300" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="300"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -11728,27 +11771,27 @@
       </c>
       <c r="D93" s="234">
         <f>Inputs!C86</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5976733983342153</v>
+        <v>3.4209498358177979</v>
       </c>
       <c r="H93" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4256507951199673</v>
+        <v>3.4209498358177979</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" s="179">
         <f>Dashboard!G20</f>
@@ -11759,26 +11802,26 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.857971339554796</v>
+        <v>11.948965083595716</v>
       </c>
       <c r="H94" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.857971339554796</v>
+        <v>11.948965083595716</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -11789,14 +11832,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H96" s="180" t="str">
         <f>H72</f>
@@ -11807,31 +11850,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17980.837596198126</v>
+        <v>18381.255083673524</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7886795148533092</v>
+        <v>2.2493300473857478</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2003306138880263</v>
+        <v>2.2493300473857478</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.0033233315294439</v>
+        <v>2.7109510381643358</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
@@ -11849,9 +11892,9 @@
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="104" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="C99" s="107">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
@@ -11859,68 +11902,68 @@
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
-        <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>8.1050438232968176</v>
+        <f>IF(H99&gt;0,I64,H99*(1+C94))</f>
+        <v>6.6162854347068825</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
-        <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.5353456744668446</v>
+        <f>I64</f>
+        <v>6.6162854347068825</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>95376.537596198119</v>
+        <v>95776.955083673529</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.137782828422834</v>
+        <v>7.4810611469369448</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8293562642186085</v>
+        <v>8.8012484081611113</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.750332739320982</v>
+        <v>8.8012484081611113</v>
       </c>
       <c r="H100" s="108">
-        <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.671309214423353</v>
+        <f>MAX(H97+H98+H99,0)</f>
+        <v>8.8012484081611113</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.474301932064771</v>
+        <v>9.2628693989396993</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H102" s="180" t="str">
         <f>H96</f>
@@ -11931,57 +11974,57 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>56303.116446526685</v>
+        <v>64203.506548927704</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.856381806188554</v>
+        <v>6.6781427277431487</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8898609484571223</v>
+        <v>7.8566385032272343</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>6.8898609484571223</v>
+        <v>7.8566385032272343</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8898609484571223</v>
+        <v>7.8566385032272343</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.4042595266766984</v>
+        <v>9.469024935473648</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H105" s="181" t="str">
         <f>H96</f>
@@ -11992,42 +12035,42 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68313.71784294532</v>
+        <v>68063.125913665717</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>7.4970823173056935</v>
+        <v>7.0796019373400467</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>8.359608606337865</v>
+        <v>8.3289434556941728</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>8.8200968438890524</v>
+        <v>8.3289434556941728</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>9.280585081440238</v>
+        <v>8.3289434556941728</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.939280729370735</v>
+        <v>9.3659471672066736</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
@@ -12036,7 +12079,6 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
@@ -12081,7 +12123,7 @@
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F35:F37" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD02E97-B5B7-F343-B29B-BB0762684649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558FEE73-354D-8141-B4A8-D2BFBCDE3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9758,8 +9758,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11917,10 +11917,7 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="90">
-        <f>C97+C98+$C$99</f>
-        <v>95776.955083673529</v>
-      </c>
+      <c r="C100" s="90"/>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>7.4810611469369448</v>
@@ -11951,10 +11948,7 @@
       <c r="B102" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="125" t="str">
-        <f>C96</f>
-        <v>HKD</v>
-      </c>
+      <c r="C102" s="125"/>
       <c r="D102" s="122" t="s">
         <v>198</v>
       </c>
@@ -11978,10 +11972,7 @@
       <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="90">
-        <f>H103*Common_Shares/Data!C4</f>
-        <v>64203.506548927704</v>
-      </c>
+      <c r="C103" s="90"/>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>6.6781427277431487</v>
@@ -12012,10 +12003,7 @@
       <c r="B105" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="125" t="str">
-        <f>C102</f>
-        <v>HKD</v>
-      </c>
+      <c r="C105" s="125"/>
       <c r="D105" s="122" t="s">
         <v>198</v>
       </c>
@@ -12039,10 +12027,7 @@
       <c r="B106" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="90">
-        <f>E106*Common_Shares/Data!C4</f>
-        <v>68063.125913665717</v>
-      </c>
+      <c r="C106" s="90"/>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
         <v>7.0796019373400467</v>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BC6F74-F199-425F-A339-068CD386A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9099ACAC-8F2B-40D9-8DEE-070987A55C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.3139974779319036E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.87</v>
+        <v>7.93</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>64312.69509632</v>
+        <v>64803.007892479996</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4677,7 +4677,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38668976584525844</v>
+        <v>0.38963784538156276</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>40.92501230296476</v>
+        <v>41.237020020649375</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.3139974779319036E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4796,20 +4796,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.0467015321145183</v>
+        <v>5.8091962997446274</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.717191845744392</v>
+        <v>9.6531130883990812</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.2902370966053169</v>
+        <v>6.8343485879348567</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.3192972571690369</v>
+        <v>8.3940113812165933</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.062543110509827</v>
+        <v>10.430103760858717</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>6.6162854347068825</v>
+        <v>5.1856049366461523</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5352956341220083E-2</v>
+        <v>1.5236792737125101E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4434934621328293E-2</v>
+        <v>2.4250054914231232E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4434934621328293E-2</v>
+        <v>2.4250054914231232E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11897,17 +11897,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.3139974779319036E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.3139974779319036E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3697585768742052E-2</v>
+        <v>7.3139974779319036E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4102585178879741</v>
+        <v>3.5757252530929744</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4102585178879741</v>
+        <v>3.5757252530929744</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11995,14 +11995,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.841921333767012</v>
+        <v>13.6162684712853</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.841921333767012</v>
+        <v>13.6162684712853</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12045,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18323.809096015018</v>
+        <v>14527.701809502201</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2423003323007973</v>
+        <v>1.7777674076564163</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2423003323007973</v>
+        <v>1.7777674076564163</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7024786428261351</v>
+        <v>2.4265491284569478</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12092,12 +12092,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>6.6162854347068825</v>
+        <v>5.1856049366461523</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>6.6162854347068825</v>
+        <v>5.1856049366461523</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12109,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.4750858891147365</v>
+        <v>5.8641544798153928</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7942186930761608</v>
+        <v>6.8990052703710507</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.7942186930761608</v>
+        <v>6.8990052703710507</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.7942186930761608</v>
+        <v>6.8990052703710507</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>9.2543970036015004</v>
+        <v>7.5477869911715825</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12164,23 +12164,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.6183171751143011</v>
+        <v>5.7542381196738619</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.7862555001344722</v>
+        <v>6.7696919054986617</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>7.7862555001344722</v>
+        <v>6.7696919054986617</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.7862555001344722</v>
+        <v>6.7696919054986617</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3841975107365752</v>
+        <v>9.2402357712616059</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12219,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.0467015321145183</v>
+        <v>5.8091962997446274</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>8.2902370966053169</v>
+        <v>6.8343485879348567</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.2902370966053169</v>
+        <v>6.8343485879348567</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.2902370966053169</v>
+        <v>6.8343485879348567</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.3192972571690369</v>
+        <v>8.3940113812165933</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9099ACAC-8F2B-40D9-8DEE-070987A55C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F05C3C-D382-42D8-98BE-331199561577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="289">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -2588,18 +2591,6 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2613,6 +2604,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2820,11 +2823,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3064,6 +3067,9 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3648,7 +3654,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3139974779319036E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4361,7 +4367,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4384,6 +4390,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4403,7 +4412,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4439,24 +4448,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="313" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v>HOLD</v>
+      </c>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.93</v>
+        <v>7.92</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4466,40 +4478,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>64803.007892479996</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>64721.289093120002</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4522,11 +4534,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4594,10 +4606,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4644,7 +4656,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4718,7 +4730,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38963784538156276</v>
+        <v>0.38914649879217872</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4734,7 +4746,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>41.237020020649375</v>
+        <v>41.185018734368604</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4766,7 +4778,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3139974779319036E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4785,10 +4797,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4796,22 +4808,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8091962997446274</v>
+        <v>6.1640834046106754</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.6531130883990812</v>
+        <v>10.494378810132186</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.8343485879348567</v>
-      </c>
-      <c r="G29" s="312">
+        <v>7.2518628289537368</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.3940113812165933</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>9.1255467914192927</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5793,7 +5805,7 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5802,6 +5814,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5829,7 +5842,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11174,7 +11187,7 @@
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11185,11 +11198,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11201,11 +11214,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11846,17 +11859,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5236792737125101E-2</v>
+        <v>1.5256031111793187E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4250054914231232E-2</v>
+        <v>2.428067367043607E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4250054914231232E-2</v>
+        <v>2.428067367043607E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11897,17 +11910,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3139974779319036E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3139974779319036E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3139974779319036E-2</v>
+        <v>7.3232323232323232E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11956,7 +11969,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11967,14 +11980,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5757252530929744</v>
+        <v>3.9241764177360099</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5757252530929744</v>
+        <v>3.9241764177360099</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11995,14 +12008,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.6162684712853</v>
+        <v>14.947357845756127</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.6162684712853</v>
+        <v>14.947357845756127</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12045,21 +12058,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14527.701809502201</v>
+        <v>15943.413100723197</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.7777674076564163</v>
+        <v>1.9510092201045277</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.7777674076564163</v>
+        <v>1.9510092201045277</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.4265491284569478</v>
+        <v>2.7302427807823766</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12109,23 +12122,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.8641544798153928</v>
+        <v>6.0114100203962879</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.8990052703710507</v>
+        <v>7.0722470828191621</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>6.8990052703710507</v>
+        <v>7.0722470828191621</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.8990052703710507</v>
+        <v>7.0722470828191621</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.5477869911715825</v>
+        <v>7.8514806434970108</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12164,23 +12177,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.7542381196738619</v>
+        <v>6.3167567888250638</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.7696919054986617</v>
+        <v>7.4314785750883106</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.7696919054986617</v>
+        <v>7.4314785750883106</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7696919054986617</v>
+        <v>7.4314785750883106</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2402357712616059</v>
+        <v>10.399612939341576</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12219,23 +12232,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>5.8091962997446274</v>
+        <v>6.1640834046106754</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>6.8343485879348567</v>
+        <v>7.2518628289537368</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>6.8343485879348567</v>
+        <v>7.2518628289537368</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>6.8343485879348567</v>
+        <v>7.2518628289537368</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>8.3940113812165933</v>
+        <v>9.1255467914192927</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F05C3C-D382-42D8-98BE-331199561577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7936ABFB-8CA7-4587-BDC5-A602A248BE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2591,6 +2591,18 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2604,18 +2616,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4448,27 +4448,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="313" t="str">
+      <c r="G2" s="317" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="313"/>
+      <c r="H2" s="317"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="311" t="str">
+      <c r="C3" s="315" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="316"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.92</v>
+        <v>7.88</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4478,40 +4478,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="313" t="str">
+      <c r="C4" s="317" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="314"/>
+      <c r="D4" s="318"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="317">
+      <c r="G4" s="321">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="317"/>
+      <c r="H4" s="321"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="315">
+      <c r="C5" s="319">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="316"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="320">
+      <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>64721.289093120002</v>
-      </c>
-      <c r="H5" s="320"/>
+        <v>64394.413895680002</v>
+      </c>
+      <c r="H5" s="313"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4534,11 +4534,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="321" t="str">
+      <c r="G6" s="314" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="321"/>
+      <c r="H6" s="314"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4689,7 +4689,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38914649879217872</v>
+        <v>0.38718111243464248</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>41.185018734368604</v>
+        <v>40.97701358924553</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4797,10 +4797,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="318" t="s">
+      <c r="G28" s="311" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="318"/>
+      <c r="H28" s="311"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.1640834046106754</v>
+        <v>6.7824366278706414</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.494378810132186</v>
+        <v>10.979135642894912</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.2518628289537368</v>
-      </c>
-      <c r="G29" s="319">
+        <v>7.9793372092595778</v>
+      </c>
+      <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1255467914192927</v>
-      </c>
-      <c r="H29" s="319"/>
+        <v>9.5470744720825333</v>
+      </c>
+      <c r="H29" s="312"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,6 +5806,7 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5814,7 +5815,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11187,7 +11187,7 @@
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="316"/>
+      <c r="E56" s="320"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11198,11 +11198,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="317">
+      <c r="D57" s="321">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="320"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11214,11 +11214,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="317">
+      <c r="D58" s="321">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="316"/>
+      <c r="E58" s="320"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.430103760858717</v>
+        <v>10.244675140810054</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>5.1856049366461523</v>
+        <v>5.8574262618044148</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11859,17 +11859,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5256031111793187E-2</v>
+        <v>1.5333472894086554E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.428067367043607E-2</v>
+        <v>2.4403925821047421E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.428067367043607E-2</v>
+        <v>2.4403925821047421E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11910,17 +11910,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3232323232323232E-2</v>
+        <v>7.3604060913705582E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11973,21 +11973,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9241764177360099</v>
+        <v>3.8329977819578502</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9241764177360099</v>
+        <v>3.8329977819578502</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12008,14 +12008,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.947357845756127</v>
+        <v>13.946726791537642</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.947357845756127</v>
+        <v>13.946726791537642</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12058,21 +12058,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15943.413100723197</v>
+        <v>17908.911228369747</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.9510092201045277</v>
+        <v>2.1915289221852987</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.9510092201045277</v>
+        <v>2.1915289221852987</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7302427807823766</v>
+        <v>2.8674824136191277</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12105,12 +12105,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>5.1856049366461523</v>
+        <v>5.8574262618044148</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>5.1856049366461523</v>
+        <v>5.8574262618044148</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12122,23 +12122,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.0114100203962879</v>
+        <v>6.7868998935494664</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.0722470828191621</v>
+        <v>7.9845881100581959</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>7.0722470828191621</v>
+        <v>7.9845881100581959</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>7.0722470828191621</v>
+        <v>7.9845881100581959</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.8514806434970108</v>
+        <v>8.6605416014920245</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12177,23 +12177,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.3167567888250638</v>
+        <v>6.7779733621918155</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.4314785750883106</v>
+        <v>7.9740863084609597</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>7.4314785750883106</v>
+        <v>7.9740863084609597</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4314785750883106</v>
+        <v>7.9740863084609597</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.399612939341576</v>
+        <v>10.433607342673042</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12232,23 +12232,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.1640834046106754</v>
+        <v>6.7824366278706414</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.2518628289537368</v>
+        <v>7.9793372092595778</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.2518628289537368</v>
+        <v>7.9793372092595778</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.2518628289537368</v>
+        <v>7.9793372092595778</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.1255467914192927</v>
+        <v>9.5470744720825333</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E74ABC4-6321-46C8-8A84-FF11EF18B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29A867E-9CC4-4E7E-8C6A-7473897EC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2604,31 +2604,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3604060913705582E-2</v>
+        <v>7.4358974358974358E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4494,27 +4494,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.88</v>
+        <v>7.8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4524,40 +4524,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>64394.413895680002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>63740.663500799994</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4580,11 +4580,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38718111243464248</v>
+        <v>0.38325033971956995</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>40.97701358924553</v>
+        <v>40.561003298999381</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3604060913705582E-2</v>
+        <v>7.4358974358974358E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4843,10 +4843,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4854,22 +4854,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.8020747482025712</v>
+        <v>6.8125749172424701</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.021049223423496</v>
+        <v>11.039654353460406</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.0024408802383196</v>
-      </c>
-      <c r="G29" s="314">
+        <v>8.0147940202852581</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.5835210638465185</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>9.5996994377916582</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5852,15 +5852,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11335,7 +11335,7 @@
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11346,11 +11346,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11362,11 +11362,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12007,17 +12007,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5333472894086554E-2</v>
+        <v>1.5490739282743853E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4403925821047421E-2</v>
+        <v>2.4654222496135084E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4403925821047421E-2</v>
+        <v>2.4654222496135084E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12058,17 +12058,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3604060913705582E-2</v>
+        <v>7.4358974358974358E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3604060913705582E-2</v>
+        <v>7.4358974358974358E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3604060913705582E-2</v>
+        <v>7.4358974358974358E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8504204991485671</v>
+        <v>3.8541850326347036</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8504204991485671</v>
+        <v>3.8541850326347036</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12156,14 +12156,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.010121004226448</v>
+        <v>14.049567909038759</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.010121004226448</v>
+        <v>14.049567909038759</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12206,21 +12206,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17990.315370316883</v>
+        <v>18007.904395892841</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2014904172861409</v>
+        <v>2.2036428015249832</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2014904172861409</v>
+        <v>2.2036428015249832</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.8831969096242607</v>
+        <v>2.8860157942930407</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12270,23 +12270,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.7953671643851816</v>
+        <v>6.7971966909881978</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.9945496051590377</v>
+        <v>7.9967019893978799</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>7.9945496051590377</v>
+        <v>7.9967019893978799</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>7.9945496051590377</v>
+        <v>7.9967019893978799</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.6762560974971574</v>
+        <v>8.6790749821659379</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12325,23 +12325,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.8087823320199599</v>
+        <v>6.8279531434967415</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.0103321553176006</v>
+        <v>8.0328860511726372</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>8.0103321553176006</v>
+        <v>8.0328860511726372</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.0103321553176006</v>
+        <v>8.0328860511726372</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.490786030195881</v>
+        <v>10.520323893417379</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12380,23 +12380,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>6.8020747482025712</v>
+        <v>6.8125749172424701</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>8.0024408802383196</v>
+        <v>8.0147940202852581</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>8.0024408802383196</v>
+        <v>8.0147940202852581</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>8.0024408802383196</v>
+        <v>8.0147940202852581</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>9.5835210638465185</v>
+        <v>9.5996994377916582</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0083.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29A867E-9CC4-4E7E-8C6A-7473897EC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38BDEE9-A55C-4CDC-8D43-218D31D1180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,6 +2604,18 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2617,18 +2629,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.4358974358974358E-2</v>
+        <v>7.6215505913272003E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4494,27 +4494,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="314" t="str">
+      <c r="G2" s="318" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="314"/>
+      <c r="H2" s="318"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="312" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0083.HK</v>
       </c>
-      <c r="D3" s="313"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.8</v>
+        <v>7.61</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4524,40 +4524,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="314" t="str">
+      <c r="C4" s="318" t="str">
         <f>Inputs!C5</f>
         <v>SINO LAND</v>
       </c>
-      <c r="D4" s="315"/>
+      <c r="D4" s="319"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="318">
+      <c r="G4" s="322">
         <f>Inputs!C10</f>
         <v>8171879936</v>
       </c>
-      <c r="H4" s="318"/>
+      <c r="H4" s="322"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="316">
+      <c r="C5" s="320">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="317"/>
+      <c r="D5" s="321"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="321">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>63740.663500799994</v>
-      </c>
-      <c r="H5" s="321"/>
+        <v>62188.006312960002</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4580,11 +4580,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="322" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="322"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.38325033971956995</v>
+        <v>0.37391475452127276</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>40.561003298999381</v>
+        <v>39.572978859664786</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.4358974358974358E-2</v>
+        <v>7.6215505913272003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4843,10 +4843,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="319" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="319"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4854,22 +4854,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.8125749172424701</v>
+        <v>6.8384865574691851</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.039654353460406</v>
+        <v>11.085566893921021</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.0147940202852581</v>
-      </c>
-      <c r="G29" s="320">
+        <v>8.045278302904924</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.5996994377916582</v>
-      </c>
-      <c r="H29" s="320"/>
+        <v>9.6396233860182789</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5852,6 +5852,7 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5860,7 +5861,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11335,7 +11335,7 @@
         <f>I15+I34</f>
         <v>867</v>
       </c>
-      <c r="E56" s="317"/>
+      <c r="E56" s="321"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11346,11 +11346,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="318">
+      <c r="D57" s="322">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="317"/>
+      <c r="E57" s="321"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11362,11 +11362,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="318">
+      <c r="D58" s="322">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="317"/>
+      <c r="E58" s="321"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12007,17 +12007,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5490739282743853E-2</v>
+        <v>1.5877498870617877E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4654222496135084E-2</v>
+        <v>2.5269768130072753E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4654222496135084E-2</v>
+        <v>2.5269768130072753E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12058,17 +12058,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4358974358974358E-2</v>
+        <v>7.6215505913272003E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4358974358974358E-2</v>
+        <v>7.6215505913272003E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4358974358974358E-2</v>
+        <v>7.6215505913272003E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8541850326347036</v>
+        <v>3.863454756500611</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>3.8541850326347036</v>
+        <v>3.863454756500611</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12156,14 +12156,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.049567909038759</v>
+        <v>14.146932586829974</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.049567909038759</v>
+        <v>14.146932586829974</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12206,21 +12206,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18007.904395892841</v>
+        <v>18051.215316292393</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.2036428015249832</v>
+        <v>2.2089427962310668</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.2036428015249832</v>
+        <v>2.2089427962310668</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.8860157942930407</v>
+        <v>2.8929569684347127</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12270,23 +12270,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.7971966909881978</v>
+        <v>6.8017016864883679</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.9967019893978799</v>
+        <v>8.0020019841039627</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>7.9967019893978799</v>
+        <v>8.0020019841039627</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>7.9967019893978799</v>
+        <v>8.0020019841039627</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.6790749821659379</v>
+        <v>8.686016156307609</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12325,23 +12325,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.8279531434967415</v>
+        <v>6.8752714284500023</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.0328860511726372</v>
+        <v>8.0885546217058852</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>8.0328860511726372</v>
+        <v>8.0885546217058852</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.0328860511726372</v>
+        <v>8.0885546217058852</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.520323893417379</v>
+        <v>10.593230615728947</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12380,23 +12380,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>6.8125749172424701</v>
+        <v>6.8384865574691851</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>8.0147940202852581</v>
+        <v>8.045278302904924</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>8.0147940202852581</v>
+        <v>8.045278302904924</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>8.0147940202852581</v>
+        <v>8.045278302904924</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>9.5996994377916582</v>
+        <v>9.6396233860182789</v>
       </c>
       <c r="K106" s="75"/>
     </row>
